--- a/02_programme_task/xlsx_out/46.1 Corinthians.xlsx
+++ b/02_programme_task/xlsx_out/46.1 Corinthians.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B366"/>
+  <dimension ref="A1:B449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,4373 +453,5369 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul, called by the will of God to be an apostle of Christ Jesus, and our brother Sosthenes, 2</t>
+          <t>The First Letter of Paul to the Corinthians Corinthians Greeting</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1 Corinthians 1:2</t>
+          <t>1 Corinthians 1:1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>To the church of God that is in Corinth, to those sanctified in Christ Jesus, called to be saints together with all those who in every place call upon the name of our Lord Jesus Christ, both their Lord and ours: 3</t>
+          <t>Paul, a called b by the will of God to be an apostle of Christ Jesus, and our brother Sosthenes,</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1 Corinthians 1:4</t>
+          <t>1 Corinthians 1:2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>I give thanks to my God always for you because of the grace of God that was given you in Christ Jesus, 5</t>
+          <t>To the church of God that is in Corinth, to those c sanctified in Christ Jesus, d called to be saints together with all those who in every place e call upon the name of our Lord Jesus Christ, both their Lord and ours:</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1 Corinthians 1:5</t>
+          <t>1 Corinthians 1:3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>that in every way you were enriched in him in all speech and all knowledg16 e16 6</t>
+          <t>d Grace to you and peace from God our Father and the Lord Jesus Christ. Thanksgiving</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1 Corinthians 1:6</t>
+          <t>1 Corinthians 1:4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>even as the testimony about Christ was confirmed among yo16 u16 7</t>
+          <t>I f give thanks to my God always for you because of the grace of God that was given you in Christ Jesus,</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1 Corinthians 1:7</t>
+          <t>1 Corinthians 1:5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>so that you are not lacking in any gift, as you wait for the revealing of our Lord Jesus Christ, 8</t>
+          <t>that in every way g you were enriched in him in all h speech and all knowledg e</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1 Corinthians 1:10</t>
+          <t>1 Corinthians 1:6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>I ppeal to you, brothers, by the name of our Lord Jesus Christ, that all of you agree, and that there be no divisions among you, but that you be united in the same mind and the same judgment.</t>
+          <t>even as i the testimony about Christ was confirmed among yo u</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1 Corinthians 1:11</t>
+          <t>1 Corinthians 1:7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>For it has been reported to me by Chloe's people that there is quarreling among you, my brothers.</t>
+          <t>so that you are not lacking in any gift, as you j wait for the revealing of our Lord Jesus Christ,</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1 Corinthians 1:12</t>
+          <t>1 Corinthians 1:8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>What I mean is that each one of you says, I ollow Paul, or I ollow Apollos, or I ollow Cephas, or I ollow Christ.</t>
+          <t>k who will sustain you to the end, l guiltless m in the day of our Lord Jesus Christ.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1 Corinthians 1:14</t>
+          <t>1 Corinthians 1:9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>I thank God that I baptized none of you except Crispus and Gaius,</t>
+          <t>n God is faithful, by whom you were called into the o fellowship of his Son, Jesus Christ our Lord. Divisions in the Church</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1 Corinthians 1:15</t>
+          <t>1 Corinthians 1:10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>so that no one may say that you were baptized in my name.</t>
+          <t>I appeal to you, brothers, by the name of our Lord Jesus Christ, that all of you agree, and that there be no p divisions among you, but that you be united q in the same mind and the same judgment.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1 Corinthians 1:16</t>
+          <t>1 Corinthians 1:11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>(I id baptize also the household of Stephanas. Beyond that, I o not know whether I baptized anyone else.)</t>
+          <t>For it has been reported to me by Chloe s people that there is r quarreling among you, my brothers.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1 Corinthians 1:17</t>
+          <t>1 Corinthians 1:12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>For Christ did not send me to baptize but to preach the gospel, and not with words of eloquent wisdom, lest the cross of Christ be emptied of its power. Christ the Wisdom and Power of God</t>
+          <t>What I mean is that s each one of you says, I follow Paul, or I follow t Apollos, or I follow u Cephas, or I follow Christ.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1 Corinthians 1:18</t>
+          <t>1 Corinthians 1:13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>For the word of the cross is folly to those who are perishing, but to us who are being saved it is the power of God.</t>
+          <t>v Is Christ divided? Was Paul crucified for you? Or were you w baptized in the name of Paul?</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1 Corinthians 1:19</t>
+          <t>1 Corinthians 1:14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>For it is written, - I will destroy the wisdom of the wise, - and the discernment of the discerning I will thwart.</t>
+          <t>I thank God that I baptized none of you except x Crispus and y Gaius,</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1 Corinthians 1:21</t>
+          <t>1 Corinthians 1:15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>For since, in the wisdom of God, the world did not know God through wisdom, it pleased God through the folly of what we preac h to save those who believe.</t>
+          <t>so that no one may say that you were baptized in my name.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1 Corinthians 1:22</t>
+          <t>1 Corinthians 1:17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>For Jews demand signs and Greeks seek wisdom,</t>
+          <t>For Christ did not send me to baptize but to preach the gospel, and a not with words of eloquent wisdom, lest the cross of Christ be emptied of its power. Christ the Wisdom and Power of God</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1 Corinthians 1:23</t>
+          <t>1 Corinthians 1:18</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>but we preach Christ crucified, a stumbling block to Jews and folly to Gentiles,</t>
+          <t>For the word of the cross is b folly to c those who are perishing, but to us d who are being saved it is e the power of God.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1 Corinthians 1:24</t>
+          <t>1 Corinthians 1:19</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>but to those who are called, both Jews and Greeks, Christ the power of God and the wisdom of God.</t>
+          <t>For it is written, f I will destroy the wisdom of the wise, and the discernment of the discerning I will thwart.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1 Corinthians 1:25</t>
+          <t>1 Corinthians 1:20</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>For the foolishness of God is wiser than men, and the weakness of God is stronger than men.</t>
+          <t>g Where is the one who is wise? Where is the scribe? Where is the debater of this age? h Has not God made foolish the wisdom of the world?</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1 Corinthians 1:26</t>
+          <t>1 Corinthians 1:21</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>For consider your calling, brothers: not many of you were wise according to worldly standards, not many were powerful, not many were of noble birth.</t>
+          <t>For since, in the wisdom of God, the world did not know God through wisdom, it pleased God through the folly of what we preac h to save those who believe.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1 Corinthians 1:27</t>
+          <t>1 Corinthians 1:22</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>But God chose what is foolish in the world to shame the wise; God chose what is weak in the world to shame the strong;</t>
+          <t>For i Jews demand signs and Greeks seek wisdom,</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1 Corinthians 1:28</t>
+          <t>1 Corinthians 1:23</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>God chose what is low and despised in the world, even things that are not, to bring to nothing things that are,</t>
+          <t>but we preach Christ j crucified, a stumbling block to Jews and folly to Gentiles,</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1 Corinthians 1:29</t>
+          <t>1 Corinthians 1:24</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>so that no human bein16 g might boast in the presence of God.</t>
+          <t>but to those who are called, both Jews and Greeks, Christ k the power of God and l the wisdom of God.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1 Corinthians 1:30</t>
+          <t>1 Corinthians 1:25</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>And because of hi16 m you are in Christ Jesus, who became to us wisdom from God, righteousness and sanctification and redemption,</t>
+          <t>For the foolishness of God is wiser than men, and the weakness of God is stronger than men.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1 Corinthians 1:31</t>
+          <t>1 Corinthians 1:26</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>so that, as it is written, Let the one who boasts, boast in the Lord. Proclaiming Christ Crucified 2</t>
+          <t>For consider your calling, brothers: m not many of you were wise according to worldly standards, not many were powerful, not many were of noble birth.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1 Corinthians 2:1</t>
+          <t>1 Corinthians 1:27</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>And I, when I came to you, brothers, did not come proclaiming to you the testimon16 y of God with lofty speech or wisdom. 2</t>
+          <t>But n God chose what is foolish in the world to shame the wise; o God chose what is weak in the world to shame the strong;</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1 Corinthians 2:2</t>
+          <t>1 Corinthians 1:28</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>For I decided to know nothing among you except Jesus Christ and him crucified. 3</t>
+          <t>God chose what is low and despised in the world, even p things that are not, to q bring to nothing things that are,</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1 Corinthians 2:3</t>
+          <t>1 Corinthians 1:29</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>And I was with you in weakness and in fear and much trembling, 4</t>
+          <t>so r that no human bein g might boast in the presence of God.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1 Corinthians 2:4</t>
+          <t>1 Corinthians 1:30</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>and my speech and my message were not in plausible words of wisdom, but in demonstration of the Spirit and of power, 5</t>
+          <t>And because of hi m you are in Christ Jesus, who became to us s wisdom from God, t righteousness and u sanctification and v redemption,</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1 Corinthians 2:5</t>
+          <t>1 Corinthians 1:31</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>so that your faith might not rest in the wisdom of me n but in the power of God. Wisdom from the Spirit 6</t>
+          <t>so that, as it is written, w Let the one who boasts, boast in the Lord. Proclaiming Christ Crucified</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1 Corinthians 2:6</t>
+          <t>1 Corinthians 2:1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Yet among the mature we do impart wisdom, although it is not a wisdom of this age or of the rulers of this age, who are doomed to pass away. 7</t>
+          <t>And I, when I came to you, brothers,</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1 Corinthians 2:7</t>
+          <t>1 Corinthians 2:2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>But we impart a secret and hidden wisdom of God, which God decreed before the ages for our glory. 8</t>
+          <t>x did not come proclaiming to you y the testimon y of God with lofty speech or wisdom.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1 Corinthians 2:8</t>
+          <t>1 Corinthians 2:2</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>None of the rulers of this age understood this, for if they had, they would not have crucified the Lord of glory. 9</t>
+          <t>For I decided to know nothing among you except z Jesus Christ and him crucified.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1 Corinthians 2:9</t>
+          <t>1 Corinthians 2:3</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>But, as it is written, - What no eye has seen, nor ear heard, - nor the heart of man imagined, - what God has prepared for those who love him</t>
+          <t>And a I was with you b in weakness and in fear and much trembling,</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1 Corinthians 2:10</t>
+          <t>1 Corinthians 2:4</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>these things God has revealed to us through the Spirit. For the Spirit searches everything, even the depths of God.</t>
+          <t>and my speech and my message were not in plausible words of wisdom, but in demonstration of c the Spirit and of power,</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1 Corinthians 2:11</t>
+          <t>1 Corinthians 2:5</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>For who knows a person's thoughts except the spirit of that person, which is in him So also no one comprehends the thoughts of God except the Spirit of God.</t>
+          <t>so that your faith might not rest in the wisdom of me n but d in the power of God. Wisdom from the Spirit</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1 Corinthians 2:12</t>
+          <t>1 Corinthians 2:6</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Now we have received not the spirit of the world, but the Spirit who is from God, that we might understand the things freely given us by God.</t>
+          <t>Yet among e the mature we do impart wisdom, although it is not f a wisdom of this age or of the rulers of this age, g who are doomed to pass away.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1 Corinthians 2:13</t>
+          <t>1 Corinthians 2:7</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>And we impart this in words not taught by human wisdom but taught by the Spirit, interpreting spiritual truths to those who are spiritual.</t>
+          <t>But we impart a secret and hidden wisdom of God, h which God decreed before the ages for our glory.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1 Corinthians 2:14</t>
+          <t>1 Corinthians 2:8</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>The natural person does not accept the things of the Spirit of God, for they are folly to him, and he is not able to understand them because they are spiritually discerned.</t>
+          <t>None of i the rulers of this age understood this, for j if they had, they would not have crucified k the Lord of glory.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1 Corinthians 2:15</t>
+          <t>1 Corinthians 2:9</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>The spiritual person judges all things, but is himself to be judged by no one.</t>
+          <t>But, as it is written, l What no eye has seen, nor ear heard, nor the heart of man imagined, what God has m prepared n for those who love him</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1 Corinthians 3:1</t>
+          <t>1 Corinthians 2:10</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>But I, brothers, could not address you as spiritual people, but as people of the flesh, as infants in Christ. 2</t>
+          <t>these things o God has revealed to us through the Spirit. For the Spirit searches everything, even p the depths of God.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1 Corinthians 3:3</t>
+          <t>1 Corinthians 2:11</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>for you are still of the flesh. For while there is jealousy and strife among you, are you not of the flesh and behaving only in a human way 4</t>
+          <t>For who knows a person s thoughts q except the spirit of that person, which is in him? So also no one comprehends the thoughts of God except the Spirit of God.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1 Corinthians 3:4</t>
+          <t>1 Corinthians 2:12</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>For when one says, I ollow Paul, and another, I ollow Apollos, are you not being merely human 5</t>
+          <t>Now r we have received not s the spirit of the world, but the Spirit who is from God, that we might understand the things freely given us by God.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1 Corinthians 3:5</t>
+          <t>1 Corinthians 2:13</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>What then is Apollos What is Paul Servants through whom you believed, as the Lord assigned to each. 6</t>
+          <t>And we impart this t in words not taught by human wisdom but taught by the Spirit, u interpreting spiritual truths to those who are spiritual.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1 Corinthians 3:7</t>
+          <t>1 Corinthians 2:14</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>So neither he who plants nor he who waters is anything, but only God who gives the growth. 8</t>
+          <t>The natural person does not accept the things of the Spirit of God, for they are v folly to him, and w he is not able to understand them because they are spiritually discerned.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1 Corinthians 3:8</t>
+          <t>1 Corinthians 2:15</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>He who plants and he who waters are one, and each will receive his wages according to his labor. 9</t>
+          <t>The x spiritual person judges all things, but is himself to be judged by no one.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1 Corinthians 3:9</t>
+          <t>1 Corinthians 2:16</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>For we are God's fellow workers. You are God's field, God's building.</t>
+          <t>y For who has understood the mind of the Lord so as to instruct him? But z we have the mind of Christ. Divisions in the Church</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1 Corinthians 3:11</t>
+          <t>1 Corinthians 3:1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>For no one can lay a foundation other than that which is laid, which is Jesus Christ.</t>
+          <t>But I, brothers, could not address you as a spiritual people, but as b people of the flesh, as c infants in Christ.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1 Corinthians 3:12</t>
+          <t>1 Corinthians 3:2</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Now if anyone builds on the foundation with gold, silver, precious stones, wood, hay, stra16 w16</t>
+          <t>d I fed you with milk, not solid food, for e you were not ready for it. And even now you are not yet ready,</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1 Corinthians 3:14</t>
+          <t>1 Corinthians 3:3</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>If the work that anyone has built on the foundation survives, he will receive a reward.</t>
+          <t>for you are still of the flesh. For while there is f jealousy and strife among you, are you not of the flesh and behaving only in a human way?</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1 Corinthians 3:15</t>
+          <t>1 Corinthians 3:4</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>If anyone's work is burned up, he will suffer loss, though he himself will be saved, but only as through fire.</t>
+          <t>For g when one says, I follow Paul, and another, I follow Apollos, h are you not being merely human?</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1 Corinthians 3:17</t>
+          <t>1 Corinthians 3:5</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>If anyone destroys God's temple, God will destroy him. For God's temple is holy, and you are that temple.</t>
+          <t>What then is Apollos? What is Paul? i Servants through whom you believed, j as the Lord assigned to each.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1 Corinthians 3:19</t>
+          <t>1 Corinthians 3:6</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>For the wisdom of this world is folly with God. For it is written, He catches the wise in their craftiness,</t>
+          <t>k I planted, l Apollos watered, m but God gave the growth.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1 Corinthians 3:20</t>
+          <t>1 Corinthians 3:7</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>and again, The Lord knows the thoughts of the wise, that they are futile.</t>
+          <t>So n neither he who plants nor he who waters is anything, but only God who gives the growth.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1 Corinthians 3:21</t>
+          <t>1 Corinthians 3:8</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>So let no one boast in men. For all things are yours,</t>
+          <t>He who plants and he who waters are one, and each o will receive his wages according to his labor.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1 Corinthians 3:22</t>
+          <t>1 Corinthians 3:9</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>whether Paul or Apollos or Cephas or the world or life or death or the pres173 ent or the futur16 e all are yours,</t>
+          <t>For we are p God s fellow workers. You are God s field, q God s building.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1 Corinthians 3:23</t>
+          <t>1 Corinthians 3:10</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>and you are Christ's, and Christ is God's. The Ministry of Apostles 4</t>
+          <t>r According to the grace of God given to me, like a skille d master builder I laid a s foundation, and t someone else is building upon it. Let each one take care how he builds upon it.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1 Corinthians 4:1</t>
+          <t>1 Corinthians 3:11</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>This is how one should regard us, as servants of Christ and stewards of the mysteries of God. 2</t>
+          <t>For no one can lay a u foundation other v than that which is laid, w which is Jesus Christ.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1 Corinthians 4:2</t>
+          <t>1 Corinthians 3:12</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Moreover, it is required of stewards that they be found faithful. 3</t>
+          <t>Now if anyone builds on the foundation with gold, silver, precious stones, wood, hay, stra w</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1 Corinthians 4:3</t>
+          <t>1 Corinthians 3:13</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>But with me it is a very small thing that I should be judged by you or by any human court. In fact, I o not even judge myself. 4</t>
+          <t>x each one s work will become manifest, for the Day will disclose it, because it will be revealed y by fire, and z the fire will test what sort of work each one has done.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1 Corinthians 4:5</t>
+          <t>1 Corinthians 3:14</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Therefore do not pronounce judgment before the time, before the Lord comes, who will bring to light the things now hidden in darkness and will disclose the purposes of the heart. Then each one will receive his commendation from God. 6</t>
+          <t>If the work that anyone has built on the foundation survives, a he will receive a reward.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1 Corinthians 4:6</t>
+          <t>1 Corinthians 3:15</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>I have applied all these things to myself and Apollos for your benefit, brothers, that you may learn by us not to go beyond what is written, that none of you may be puffed up in favor of one against another. 7</t>
+          <t>If anyone s work is burned up, he will suffer loss, though he himself will be saved, b but only as through fire.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1 Corinthians 4:7</t>
+          <t>1 Corinthians 3:16</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>For who sees anything different in you What do you have that you did not receive If then you received it, why do you boast as if you did not receive it 8</t>
+          <t>c Do you not know that yo u are God s temple and that God s Spirit dwells in you?</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1 Corinthians 4:8</t>
+          <t>1 Corinthians 3:17</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Already you have all you want! Already you have become rich! Without us you have become kings! And would that you did reign, so that we might share the rule with you! 9</t>
+          <t>If anyone destroys God s temple, God will destroy him. For d God s temple is holy, and you are that temple.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1 Corinthians 4:9</t>
+          <t>1 Corinthians 3:18</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>For I think that God has exhibited us apostles as last of all, like men sentenced to death, because we have become a spectacle to the world, to angels, and to men.</t>
+          <t>e Let no one deceive himself. f If anyone among you thinks that he is wise in this age, let him become a fool that he may become wise.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1 Corinthians 4:11</t>
+          <t>1 Corinthians 3:19</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>To the pres173 ent hour we hunger and thirst, we are poorly dressed and buffeted and homeless,</t>
+          <t>For g the wisdom of this world is folly with God. For it is written, h He catches the wise in their craftiness,</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1 Corinthians 4:12</t>
+          <t>1 Corinthians 3:20</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>and we labor, working with our own hands. When reviled, we bless; when persecuted, we endure;</t>
+          <t>and again, i The Lord knows the thoughts of the wise, that they are futile.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1 Corinthians 4:13</t>
+          <t>1 Corinthians 3:21</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>when slandered, we entreat. We have become, and are still, like the scum of the world, the refuse of all things.</t>
+          <t>So j let no one boast in men. For k all things are yours,</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1 Corinthians 4:14</t>
+          <t>1 Corinthians 3:22</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>I o not write these things to make you ashamed, but to admonish you as my beloved children.</t>
+          <t>whether Paul or Apollos or Cephas or the world or life or death or the pres?ent or the futur e all are yours,</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1 Corinthians 4:15</t>
+          <t>1 Corinthians 3:23</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>For though you have countles16's guides in Christ, you do not have many fathers. For I me your father in Christ Jesus through the gospel.</t>
+          <t>and l you are Christ s, and m Christ is God s. The Ministry of Apostles</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1 Corinthians 4:16</t>
+          <t>1 Corinthians 4:1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>I urge you, then, be imitators of me.</t>
+          <t>This is how one should regard us, as servants of Christ and n stewards of the mysteries of God.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1 Corinthians 4:17</t>
+          <t>1 Corinthians 4:2</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>That is why I sen16 t you Timothy, my beloved and faithful child in the Lord, to remind you of my ways in Christ, as I teach them everywhere in every church.</t>
+          <t>Moreover, it is required of stewards that they be found faithful.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1 Corinthians 4:18</t>
+          <t>1 Corinthians 4:3</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Some are arrogant, as though I were not coming to you.</t>
+          <t>But with me it is a very small thing that I should be judged by you or by any human court. In fact, I do not even judge myself.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1 Corinthians 4:19</t>
+          <t>1 Corinthians 4:4</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>But I will come to you soon, if the Lord wills, and I will find out not the talk of these arrogant people but their power.</t>
+          <t>o For I am not aware of anything against myself, p but I am not thereby acquitted. It is the Lord who judges me.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1 Corinthians 4:20</t>
+          <t>1 Corinthians 4:5</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>For the kingdom of God does not consist in talk but in power.</t>
+          <t>Therefore q do not pronounce judgment before the time, r before the Lord comes, s who will bring to light the things now hidden in darkness and will disclose the purposes of the heart. t Then each one will receive his commendation from God.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1 Corinthians 4:21</t>
+          <t>1 Corinthians 4:6</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>What do you wish Shall I come to you with a rod, or with love in a spirit of gentleness Sexual Immorality Defiles the Church 5</t>
+          <t>I have applied all these things to myself and Apollos for your benefit, brothers, that you may learn by us not to go beyond what is written, that none of you may u be puffed up in favor of one against another.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1 Corinthians 5:1</t>
+          <t>1 Corinthians 4:7</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>It is actually reported that there is sexual immorality among you, and of a kind that is not tolerated even among pagans, for a man has his father's wife. 2</t>
+          <t>For who sees anything different in you? v What do you have that you did not receive? If then you received it, why do you boast as if you did not receive it?</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1 Corinthians 5:2</t>
+          <t>1 Corinthians 4:8</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>And you are arrogant! Ought you not rather to mourn Let him who has done this be removed from among you. 3</t>
+          <t>Already you have all you want! Already you have become rich! Without us you have become kings! And would that you did reign, so that we might share the rule with you!</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1 Corinthians 5:3</t>
+          <t>1 Corinthians 4:9</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>For though absent in body, I m pres173 ent in spirit; and as if pres173 ent, I have already pronounced judgment on the one who did such a thing. 4</t>
+          <t>For I think that God has exhibited us apostles as last of all, w like men sentenced to death, because we x have become a spectacle to the world, to angels, and to men.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1 Corinthians 5:4</t>
+          <t>1 Corinthians 4:10</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>When you are assembled in the name of the Lord Jesus and my spirit is pres173 ent, with the power of our Lord Jesus, 5</t>
+          <t>y We are fools for Christ s sake, but z you are wise in Christ. a We are weak, but you are strong. You are held in honor, but we in disrepute.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1 Corinthians 5:5</t>
+          <t>1 Corinthians 4:11</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>you are to deliver this man to Satan for the destruction of the flesh, so that his spirit may be saved in the day of the Lord. 6</t>
+          <t>To the pres?ent hour b we hunger and thirst, we are poorly dressed and c buffeted and d homeless,</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1 Corinthians 5:7</t>
+          <t>1 Corinthians 4:12</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Cleanse out the old leaven that you may be a new lump, as you really are unleavened. For Christ, our Passover lamb, has been sacrificed. 8</t>
+          <t>and we e labor, working with our own hands. f When reviled, we bless; g when persecuted, we endure;</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1 Corinthians 5:8</t>
+          <t>1 Corinthians 4:13</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Let us therefore celebrate the festival, not with the old leaven, the leaven of malice and evil, but with the unleavened bread of sincerity and truth. 9</t>
+          <t>when slandered, we entreat. h We have become, and are still, like the scum of the world, i the refuse of all things.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1 Corinthians 5:9</t>
+          <t>1 Corinthians 4:14</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>I wrote to you in my letter not to associate with sexually immoral peopl16 e16</t>
+          <t>I do not write these things j to make you ashamed, but to admonish you k as my beloved children.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1 Corinthians 5:11</t>
+          <t>1 Corinthians 4:15</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>But now I am writing to you not to associate with anyone who bears the name of brother if he is guilty of sexual immorality or greed, or is an idolater, reviler, drunkard, or swindler not even to eat with such a one.</t>
+          <t>For l though you have countles s guides in Christ, you do not have many fathers. For m I became your father in Christ Jesus through the gospel.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1 Corinthians 5:12</t>
+          <t>1 Corinthians 4:16</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>For what have I to do with judging outsiders Is it not those inside the churc h whom you are to judge</t>
+          <t>I urge you, then, n be imitators of me.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1 Corinthians 5:13</t>
+          <t>1 Corinthians 4:17</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>God judge16's those outside. Purge the evil person from among you. Lawsuits Against Believers 6</t>
+          <t>That is why o I sen t you Timothy, p my beloved and faithful child in the Lord, to remind you of my ways in Christ,</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1 Corinthians 6:1</t>
+          <t>1 Corinthians 4:18</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>When one of you has a grievance against another, does he dare go to law before the unrighteous instead of the saints 2</t>
+          <t>q as I teach them everywhere in every church.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1 Corinthians 6:2</t>
+          <t>1 Corinthians 4:18</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Or do you not know that the saints will judge the world And if the world is to be judged by you, are you incompetent to try trivial cases 3</t>
+          <t>Some are r arrogant, s as though I were not coming to you.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1 Corinthians 6:3</t>
+          <t>1 Corinthians 4:19</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Do you not know that we are to judge angels How much more, then, matters pertaining to this life! 4</t>
+          <t>But t I will come to you soon, if the Lord wills, and I will find out not the talk of these arrogant people but their power.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1 Corinthians 6:4</t>
+          <t>1 Corinthians 4:20</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>So if you have such cases, why do you lay them before those who have no standing in the church 5</t>
+          <t>For u the kingdom of God does not consist in talk but in power.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1 Corinthians 6:6</t>
+          <t>1 Corinthians 4:21</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>but brother goes to law against brother, and that before unbelievers 7</t>
+          <t>What do you wish? v Shall I come to you with a rod, or with love in a spirit of gentleness? Sexual Immorality Defiles the Church</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1 Corinthians 6:7</t>
+          <t>1 Corinthians 5:1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>To have lawsuits at all with one another is already a defeat for you. Why not rather suffer wrong Why not rather be defrauded 8</t>
+          <t>It is actually reported that there is w sexual immorality among you, and of a kind that is not tolerated even among pagans, x for a man has his father s wife.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1 Corinthians 6:8</t>
+          <t>1 Corinthians 5:2</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>But you yourselves wrong and defrau d even your own brothers! 9</t>
+          <t>And y you are arrogant! Ought you z not rather to mourn? Let him who has done this be removed from among you.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1 Corinthians 6:9</t>
+          <t>1 Corinthians 5:3</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Or do you not know that the unrighteou's will not inherit the kingdom of God Do not be deceived: neither the sexually immoral, nor idolaters, nor adulterers, nor men who practice homosexuality,</t>
+          <t>For though a absent in body, I am pres?ent in spirit; and as if pres?ent, I have already pronounced judgment on the one who did such a thing.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1 Corinthians 6:10</t>
+          <t>1 Corinthians 5:4</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>nor thieves, nor the greedy, nor drunkards, nor revilers, nor swindlers will inherit the kingdom of God.</t>
+          <t>When you are assembled b in the name of the Lord Jesus and my spirit is pres?ent, with the power of our Lord Jesus,</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1 Corinthians 6:11</t>
+          <t>1 Corinthians 5:5</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>And such were some of you. But you were washed, you were sanctified, you were justified in the name of the Lord Jesus Christ and by the Spirit of our God. Flee Sexual Immorality</t>
+          <t>you are c to deliver this man to Satan for the destruction of the flesh, so d that his spirit may be saved e in the day of the Lord.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1 Corinthians 6:14</t>
+          <t>1 Corinthians 5:6</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>And God raised the Lord and will also raise us up by his power.</t>
+          <t>f Your boasting is not good. Do you not know that g a little leaven leavens the whole lump?</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>1 Corinthians 6:15</t>
+          <t>1 Corinthians 5:7</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Do you not know that your bodies are members of Christ Shall I then take the members of Christ and make them members of a prostitute Never!</t>
+          <t>Cleanse out the old leaven that you may be a new lump, as you really are unleavened. For Christ, our Passover lamb, has been sacrificed.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1 Corinthians 6:16</t>
+          <t>1 Corinthians 5:8</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Or do you not know that he who is joine d to a prostitute becomes one body with her For, as it is written, The two will become one flesh.</t>
+          <t>Let us therefore celebrate the festival, h not with the old leaven, i the leaven of malice and evil, but with the unleavened bread of sincerity and truth.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>1 Corinthians 6:17</t>
+          <t>1 Corinthians 5:9</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>But he who is joined to the Lord becomes one spirit with him.</t>
+          <t>I wrote to you in my letter j not to associate with sexually immoral people</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>1 Corinthians 6:19</t>
+          <t>1 Corinthians 5:10</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Or do you not know that your body is a temple of the Holy Spirit within you, whom you have from God You are not your own,</t>
+          <t>k not at all meaning l the sexually immoral of this world, or the greedy and swindlers, or idolaters, m since then you would need to go out of the world.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:1</t>
+          <t>1 Corinthians 5:11</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Now concerning the matters about which you wrote: It is good for a man not to have sexual relations with a woman. 2</t>
+          <t>But now I am writing to you not to associate with anyone n who bears the name of brother if he is guilty of sexual immorality or greed, or is an idolater, reviler, drunkard, or swindler not even to eat with such a one.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:2</t>
+          <t>1 Corinthians 5:12</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>But because of the temptation to sexual immorality, each man should have his own wife and each woman her own husband. 3</t>
+          <t>For what have I to do with judging o outsiders? p Is it not those inside the churc h whom you are to judge?</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:4</t>
+          <t>1 Corinthians 5:13</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>For the wife does not have authority over her own body, but the husband does. Likewise the husband does not have authority over his own body, but the wife does. 5</t>
+          <t>God judge s those outside. q Purge the evil person from among you. Lawsuits Against Believers</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:6</t>
+          <t>1 Corinthians 6:1</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Now as a concession, not a command, I say this. 7</t>
+          <t>When one of you has a grievance against another, does he dare go to law before the unrighteous r instead of the saints?</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:8</t>
+          <t>1 Corinthians 6:2</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>To the unmarried and the widows I say that it is good for them to remain single, as I am. 9</t>
+          <t>Or do you not know that s the saints will judge the world? And if the world is to be judged by you, are you incompetent to try trivial cases?</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:9</t>
+          <t>1 Corinthians 6:3</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>But if they cannot exercise self- control, they should marry. For it is better to marry than to burn with passion.</t>
+          <t>Do you not know that we are to judge angels? How much more, then, matters pertaining to this life!</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:10</t>
+          <t>1 Corinthians 6:4</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>To the married I give this charge (not I, but the Lord): the wife should not separate from her husband</t>
+          <t>So if you have such cases, t why do you lay them before those who have no standing in the church?</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:11</t>
+          <t>1 Corinthians 6:5</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>(but if she does, she should remain unmarried or else be reconciled to her husband), and the husband should not divorce his wife.</t>
+          <t>u I say this to your shame. Can it be that there is no one among you wise enough to settle a dispute between the brothers,</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:12</t>
+          <t>1 Corinthians 6:6</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>To the rest I say (I, not the Lord) that if any brother has a wife who is an unbeliever, and she consents to live with him, he should not divorce her.</t>
+          <t>but brother goes to law against brother, and that before unbelievers?</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:13</t>
+          <t>1 Corinthians 6:7</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>If any woman has a husband who is an unbeliever, and he consents to live with her, she should not divorce him.</t>
+          <t>To have lawsuits at all with one another is already a defeat for you. v Why not rather suffer wrong? Why not rather be defrauded?</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:14</t>
+          <t>1 Corinthians 6:8</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>For the unbelieving husband is made holy because of his wife, and the unbelieving wife is made holy because of her husband. Otherwise your children would be unclean, but as it is, they are holy.</t>
+          <t>But you yourselves wrong and defrau d even w your own brothers!</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:15</t>
+          <t>1 Corinthians 6:9</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>But if the unbelieving partner separates, let it be so. In such cases the brother or sister is not enslaved. God has called yo u to peace.</t>
+          <t>Or do you not know that the unrighteou s will not inherit the kingdom of God? Do not be deceived: x neither the sexually immoral, nor idolaters, nor adulterers, nor men who practice homosexuality,</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:16</t>
+          <t>1 Corinthians 6:10</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>For how do you know, wife, whether you will save your husband Or how do you know, husband, whether you will save your wife Live as You Are Called</t>
+          <t>nor thieves, nor the greedy, nor drunkards, nor revilers, nor swindlers will inherit the kingdom of God.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:17</t>
+          <t>1 Corinthians 6:11</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Only let each person lead the lif e that the Lord has assigned to him, and to which God has called him. This is my rule in all the churches.</t>
+          <t>And y such were some of you. But z you were washed, a you were sanctified, b you were justified in the name of the Lord Jesus Christ and by the Spirit of our God. Flee Sexual Immorality</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:18</t>
+          <t>1 Corinthians 6:12</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Was anyone at the time of his call already circumcised Let him not seek to remove the marks of circumcision. Was anyone at the time of his call uncircumcised Let him not seek circumcision.</t>
+          <t>c All things are lawful for me, but not all things are helpful. All things are lawful for me, but I will not be dominated by anything.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:21</t>
+          <t>1 Corinthians 6:13</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Were you a bondservan t when called Do not be concerned about it. (But if you can gain your freedom, avail yourself of the opportunity.)</t>
+          <t>d Food is meant for the stomach and the stomach for food and God will destroy both one e and the other. The body is not meant for sexual immorality, but f for the Lord, and g the Lord for the body.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:22</t>
+          <t>1 Corinthians 6:14</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>For he who was called in the Lord as a bondservant is a freedman of the Lord. Likewise he who was free when called is a bondservant of Christ.</t>
+          <t>And h God raised the Lord and i will also raise us up j by his power.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:24</t>
+          <t>1 Corinthians 6:15</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>So, brothers, in whatever condition each was called, there let him remain with God. The Unmarried and the Widowed</t>
+          <t>Do you not know that k your bodies are members of Christ? Shall I then take the members of Christ and make them members of a prostitute? Never!</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:25</t>
+          <t>1 Corinthians 6:16</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Now concernin g the betrothed, I have no command from the Lord, but I give my judgment as one who by the Lord's mercy is trustworthy.</t>
+          <t>Or do you not know that he who is joine d to a prostitute becomes one body with her? For, as it is written, l The two will become one flesh.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:26</t>
+          <t>1 Corinthians 6:17</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>I think that in view of the presen16 t distress it is good for a person to remain as he is.</t>
+          <t>But he who is joined to the Lord m becomes one spirit with him.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:27</t>
+          <t>1 Corinthians 6:18</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Are you bound to a wife Do not seek to be free. Are you free from a wife Do not seek a wife.</t>
+          <t>n Flee from sexual immorality. Every other si n a person commits is outside the body, but the sexually immoral person o sins against his own body.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:28</t>
+          <t>1 Corinthians 6:19</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>But if you do marry, you have not sinned, and if a betrothed woma n marries, she has not sinned. Yet those who marry will have worldly troubles, and I would spare you that.</t>
+          <t>Or p do you not know that your body is a temple of the Holy Spirit within you, whom you have from God? q You are not your own,</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:29</t>
+          <t>1 Corinthians 6:20</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>This is what I mean, brothers: the appointed time has grown very short. From now on, let those who have wives live as though they had none,</t>
+          <t>r for you were bought with a price. s So glorify God in your body. Principles for Marriage</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:30</t>
+          <t>1 Corinthians 7:1</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>and those who mourn as though they were not mourning, and those who rejoice as though they were not rejoicing, and those who buy as though they had no goods,</t>
+          <t>Now concerning the matters about which you wrote: t It is good for a man not to have sexual relations with a woman.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:31</t>
+          <t>1 Corinthians 7:2</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>and those who deal with the world as though they had no dealings with it. For the pres173 ent form of this world is passing away.</t>
+          <t>But because of the temptation to sexual immorality, each man should have his own wife and each woman her own husband.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:32</t>
+          <t>1 Corinthians 7:3</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>I want you to be free from anxieties. The unmarried man is anxious about the things of the Lord, how to please the Lord.</t>
+          <t>u The husband should give to his wife her conjugal rights, and likewise the wife to her husband.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:33</t>
+          <t>1 Corinthians 7:4</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>But the married man is anxious about worldly things, how to please his wife,</t>
+          <t>For the wife does not have authority over her own body, but the husband does. Likewise the husband does not have authority over his own body, but the wife does.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:34</t>
+          <t>1 Corinthians 7:5</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>and his interests are divided. And the unmarried or betrothed woman is anxious about the things of the Lord, how to be holy in body and spirit. But the married woman is anxious about worldly things, how to please her husband.</t>
+          <t>v Do not deprive one another, except perhaps by agreement for a limited time, that you may devote yourselves to prayer; but then come together again, w so that Satan may not tempt you because of your lack of self-control.</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:35</t>
+          <t>1 Corinthians 7:6</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>I say this for your own benefit, not to lay any restraint upon you, but to promote good order and to secure your undivided devotion to the Lord.</t>
+          <t>Now as a concession, x not a command, I say this.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:36</t>
+          <t>1 Corinthians 7:7</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>If anyone thinks that he is not behaving properly toward his betrothed, if hi16's passions are strong, and it has to be, let him do as he wishes: let them marr y it is no sin.</t>
+          <t>y I wish that all were z as I myself am. But a each has his own gift from God, b one of one kind and one of another.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:37</t>
+          <t>1 Corinthians 7:8</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>But whoever is firmly established in his heart, being under no necessity but having his desire under control, and has determined this in his heart, to keep her as his betrothed, he will do well.</t>
+          <t>To the unmarried and the widows I say that c it is good for them to remain single, d as I am.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:38</t>
+          <t>1 Corinthians 7:9</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>So then he who marries his betrothed does well, and he who refrains from marriage will do even better.</t>
+          <t>But if they cannot exercise self-control, e they should marry. For it is better to marry than to burn with passion.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1 Corinthians 7:40</t>
+          <t>1 Corinthians 7:10</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Yet in my judgment she is happier if she remains as she is. And I think that I too have the Spirit of God. Food Offered to Idols 8</t>
+          <t>To the married f I give this charge: g the wife should not separate from her husband</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>1 Corinthians 8:1</t>
+          <t>1 Corinthians 7:11</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Now concernin16 g food offered to idols: we know that all of us possess knowledge. This knowledge puffs up, but love builds up. 2</t>
+          <t>, and g the husband should not divorce his wife.</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1 Corinthians 8:2</t>
+          <t>1 Corinthians 7:12</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>If anyone imagines that he knows something, he does not yet know as he ought to know. 3</t>
+          <t>To the rest I say that if any brother has a wife who is an unbeliever, and she consents to live with him, he should not divorce her.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>1 Corinthians 8:3</t>
+          <t>1 Corinthians 7:13</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>But if anyone loves God, he is known by God. 4</t>
+          <t>If any woman has a husband who is an unbeliever, and he consents to live with her, she should not divorce him.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1 Corinthians 8:4</t>
+          <t>1 Corinthians 7:14</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Therefore, as to the eating of food offered to idols, we know that an idol has no real existence, and that there is no God but one. 5</t>
+          <t>For the unbelieving husband is made holy because of his wife, and the unbelieving wife is made holy because of her husband. i Otherwise your children would be unclean, but as it is, they are holy.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1 Corinthians 8:5</t>
+          <t>1 Corinthians 7:15</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>For although there may be so- called gods in heaven or on eart16 h as indeed there are many gods and many lords 6</t>
+          <t>But if the unbelieving partner separates, let it be so. In such cases the brother or sister is not enslaved. God has called yo u</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1 Corinthians 8:6</t>
+          <t>1 Corinthians 7:16</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>yet for us there is one God, the Father, from whom are all things and for whom we exist, and one Lord, Jesus Christ, through whom are all things and through whom we exist. 7</t>
+          <t>j to peace.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>1 Corinthians 8:7</t>
+          <t>1 Corinthians 7:16</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>However, not all possess this knowledge. But some, through former association with idols, eat food as really offered to an idol, and their conscience, being weak, is defiled. 8</t>
+          <t>For how do you know, wife, k whether you will save your husband? Or how do you know, husband, whether you will save your wife? Live as You Are Called</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1 Corinthians 8:9</t>
+          <t>1 Corinthians 7:17</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>But take care that this right of yours does not somehow become a stumbling block to the weak.</t>
+          <t>Only let each person lead the lif e</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1 Corinthians 8:10</t>
+          <t>1 Corinthians 7:18</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>For if anyone sees you who have knowledge eatin16 g in an idol's temple, will he not be encouraged, if his conscience is weak, to eat food offered to idols</t>
+          <t>l that the Lord has assigned to him, and to which God has called him. m This is my rule in n all the churches.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1 Corinthians 8:11</t>
+          <t>1 Corinthians 7:18</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>And so by your knowledge this weak person is destroyed, the brother for whom Christ died.</t>
+          <t>Was anyone at the time of his call already circumcised? Let him not seek to remove the marks of circumcision. Was anyone at the time of his call uncircumcised? o Let him not seek circumcision.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1 Corinthians 8:12</t>
+          <t>1 Corinthians 7:19</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Thus, sinning against your brother16's and wounding their conscience when it is weak, you sin against Christ.</t>
+          <t>p For neither circumcision counts for anything nor uncircumcision, but q keeping the commandments of God.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1 Corinthians 8:13</t>
+          <t>1 Corinthians 7:20</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Therefore, if food makes my brother stumble, I will never eat meat, lest I make my brother stumble. Paul Surrenders His Rights 9</t>
+          <t>r Each one should remain in the condition in which he was called.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1 Corinthians 9:2</t>
+          <t>1 Corinthians 7:21</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>If to others I am not an apostle, at least I am to you, for you are the seal of my apostleship in the Lord. 3</t>
+          <t>Were you a bondservan t when called? Do not be concerned about it.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1 Corinthians 9:3</t>
+          <t>1 Corinthians 7:22</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>This is my defense to those who would examine me. 4</t>
+          <t>For he who was called in the Lord as a bondservant is s a freedman of the Lord. Likewise he who was free when called is t a bondservant of Christ.</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1 Corinthians 9:6</t>
+          <t>1 Corinthians 7:23</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Or is it only Barnabas and I who have no right to refrain from working for a living 7</t>
+          <t>u You were bought with a price; v do not become bondservants of men.</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>1 Corinthians 9:8</t>
+          <t>1 Corinthians 7:24</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Do I say these things on human authority Does not the Law say the same 9</t>
+          <t>So, brothers,</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>1 Corinthians 9:9</t>
+          <t>1 Corinthians 7:25</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>For it is written in the Law of Moses, You shall not muzzle an ox when it treads out the grain. Is it for oxen that God is concerned</t>
+          <t>w in whatever condition each was called, there let him remain with God. The Unmarried and the Widowed</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1 Corinthians 9:10</t>
+          <t>1 Corinthians 7:25</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Does he not certainly speak for our sake It was written for our sake, because the plowman should plow in hope and the thresher thresh in hope of sharing in the crop.</t>
+          <t>Now concernin g the betrothed,</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1 Corinthians 9:12</t>
+          <t>1 Corinthians 7:26</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>If others share this rightful claim on you, do not we even more Nevertheless, we have not made use of this right, but we endure anything rather than put an obstacle in the way of the gospel of Christ.</t>
+          <t>x I have no command from the Lord, but I give my judgment as y one who by the Lord s mercy is z trustworthy.</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1 Corinthians 9:13</t>
+          <t>1 Corinthians 7:26</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Do you not know that those who are employed in the temple service get their food from the temple, and those who serve at the altar share in the sacrificial offerings</t>
+          <t>I think that in view of the presen t distress a it is good for a person to remain as he is.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>1 Corinthians 9:14</t>
+          <t>1 Corinthians 7:27</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>In the same way, the Lord commanded that those who proclaim the gospel should get their living by the gospel.</t>
+          <t>Are you bound to a wife? Do not seek to be free. Are you free from a wife? Do not seek a wife.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>1 Corinthians 9:15</t>
+          <t>1 Corinthians 7:28</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>But I have made no use of any of these rights, nor am I writing these things to secure any such provision. For I would rather die than have anyone deprive me of my ground for boasting.</t>
+          <t>But if you do marry, you have not sinned, and if a betrothed woma n marries, she has not sinned. Yet those who marry will have worldly troubles, and I would spare you that.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>1 Corinthians 9:16</t>
+          <t>1 Corinthians 7:29</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>For if I preach the gospel, that gives me no ground for boasting. For necessity is laid upon me. Woe to me if I do not preach the gospel!</t>
+          <t>This is what I mean, brothers: b the appointed time has grown very short. From now on, let those who have wives live as though they had none,</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>1 Corinthians 9:17</t>
+          <t>1 Corinthians 7:30</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>For if I do this of my own will, I have a reward, but if not of my own will, I m still entrusted with a stewardship.</t>
+          <t>and those who mourn as though they were not mourning, and those who rejoice as though they were not rejoicing, and those who buy c as though they had no goods,</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>1 Corinthians 9:18</t>
+          <t>1 Corinthians 7:31</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>What then is my reward That in my preaching I may pre173 sent the gospel free of charge, so as not to make full use of my right in the gospel.</t>
+          <t>and those who deal with the world as though they had no dealings with it. For d the pres?ent form of this world is passing away.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>1 Corinthians 9:19</t>
+          <t>1 Corinthians 7:32</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>For though I am free from all, I have made myself a servant to all, that I might win more of them.</t>
+          <t>I want you to be e free from anxieties. f The unmarried man is anxious about the things of the Lord, how to please the Lord.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>1 Corinthians 9:21</t>
+          <t>1 Corinthians 7:33</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>To those outside the law I became as one outside the law (not being outside the law of God but under the law of Christ) that I might win those outside the law.</t>
+          <t>But the married man is anxious about worldly things, how to please his wife,</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1 Corinthians 9:23</t>
+          <t>1 Corinthians 7:34</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>I o it all for the sake of the gospel, that I may share with them in its blessings.</t>
+          <t>and his interests are divided. And the unmarried or betrothed woman is anxious about the things of the Lord, how to be holy in body and spirit. But the married woman is anxious about worldly things, how to please her husband.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>1 Corinthians 9:24</t>
+          <t>1 Corinthians 7:35</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Do you not know that in a race all the runners run, but only one receives the prize So run that you may obtain it.</t>
+          <t>I say this for your own benefit, g not to lay any restraint upon you, but to promote good order and to secure your undivided devotion to the Lord.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>1 Corinthians 9:25</t>
+          <t>1 Corinthians 7:36</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Every athlete exercises self- control in all things. They do it to receive a perishable wreath, but we an imperishable.</t>
+          <t>If anyone thinks that he is not behaving properly toward his betrothed, if hi s passions are strong, and it has to be, let him do as he wishes: let them marr y it is no sin.</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1 Corinthians 9:26</t>
+          <t>1 Corinthians 7:37</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>So I do not run aimlessly; I do not box as one beating the air.</t>
+          <t>But whoever is firmly established in his heart, being under no necessity but having his desire under control, and has determined this in his heart, to keep her as his betrothed, he will do well.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>1 Corinthians 9:27</t>
+          <t>1 Corinthians 7:38</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>But I discipline my body and keep it under control, lest after preaching to others I myself should be disqualified. Warning Against Idolatry</t>
+          <t>So then he who marries his betrothed h does well, and he who refrains from marriage will do even better.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1 Corinthians 10:1</t>
+          <t>1 Corinthians 7:39</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>For I do not want you to be unaware, brothers, that our fathers were all under the cloud, and all passed through the sea, 2</t>
+          <t>i A wife is bound to her husband as long as he lives. But if her husband dies, she is free to be married to whom she wishes, only j in the Lord.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1 Corinthians 10:2</t>
+          <t>1 Corinthians 7:40</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>and all were baptized into Moses in the cloud and in the sea, 3</t>
+          <t>Yet k in my judgment she is happier if she remains as she is. And I think l that I too have the Spirit of God. Food Offered to Idols</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1 Corinthians 10:3</t>
+          <t>1 Corinthians 8:1</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>and all ate the same spiritual food, 4</t>
+          <t>Now concernin g</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>1 Corinthians 10:4</t>
+          <t>1 Corinthians 8:2</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>and all drank the same spiritual drink. For they drank from the spiritual Rock that followed them, and the Rock was Christ. 5</t>
+          <t>m food offered to idols: we know that n all of us possess knowledge. This knowledge o puffs up, p but love builds up.</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>1 Corinthians 10:5</t>
+          <t>1 Corinthians 8:3</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Nevertheless, with most of them God was not pleased, for they were overthrow16 n in the wilderness. 6</t>
+          <t>q If anyone imagines that he knows something, r he does not yet know as he ought to know.</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>1 Corinthians 10:6</t>
+          <t>1 Corinthians 8:3</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Now these things took place as examples for us, that we might not desire evil as they did. 7</t>
+          <t>But if anyone loves God, s he is known by God.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>1 Corinthians 10:9</t>
+          <t>1 Corinthians 8:4</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>We must not put Chris16 t to the test, as some of them did and were destroyed by serpents,</t>
+          <t>Therefore, as to the eating of food offered to idols, we know that t an idol has no real existence, and that u there is no God but one.</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>1 Corinthians 10:10</t>
+          <t>1 Corinthians 8:5</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>nor grumble, as some of them did and were destroyed by the Destroyer.</t>
+          <t>For although there may be v so-called gods in heaven or on earth as indeed there are many gods and many lords</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>1 Corinthians 10:11</t>
+          <t>1 Corinthians 8:6</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Now these things happened to them as an example, but they were written down for our instruction, on whom the end of the ages has come.</t>
+          <t>yet w for us there is one God, the Father, x from whom are all things and for whom we exist, and y one Lord, Jesus Christ, through whom are all things and z through whom we exist.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>1 Corinthians 10:12</t>
+          <t>1 Corinthians 8:7</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Therefore let anyone who thinks that he stands take heed lest he fall.</t>
+          <t>However, not all possess this knowledge. But some, a through former association with idols, eat food as really offered to an idol, and b their conscience, being weak, is defiled.</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>1 Corinthians 10:13</t>
+          <t>1 Corinthians 8:8</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>No temptation has overtaken you that is not common to man. God is faithful, and he will not let you be tempted beyond your ability, but with the temptation he will also provide the way of escape, that you may be able to endure it.</t>
+          <t>c Food will not commend us to God. We are no worse off if we do not eat, and no better off if we do.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>1 Corinthians 10:14</t>
+          <t>1 Corinthians 8:9</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Therefore, my beloved, flee from idolatry.</t>
+          <t>But take care d that this right of yours does not somehow become a stumbling block e to the weak.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>1 Corinthians 10:15</t>
+          <t>1 Corinthians 8:10</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>I speak as to sensible people; judge for yourselves what I say.</t>
+          <t>For if anyone sees you who have knowledge eating in an idol s temple, will he not be encouraged, if his conscience is weak, to eat food offered to idols?</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>1 Corinthians 10:17</t>
+          <t>1 Corinthians 8:11</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Because there is one bread, we who are many are one body, for we all partake of the one bread.</t>
+          <t>And so by your knowledge this weak person is f destroyed, the brother for whom Christ died.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>1 Corinthians 10:18</t>
+          <t>1 Corinthians 8:12</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Consider the people of Israel: are not those who eat the sacrifices participants in the altar</t>
+          <t>Thus, sinning against your brother s and g wounding their conscience when it is weak, h you sin against Christ.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>1 Corinthians 10:19</t>
+          <t>1 Corinthians 8:13</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>What do I imply then That food offered to idols is anything, or that an idol is anything</t>
+          <t>Therefore, i if food makes my brother stumble, I will never eat meat, lest I make my brother stumble. Paul Surrenders His Rights</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>1 Corinthians 10:20</t>
+          <t>1 Corinthians 8:14</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>No, I imply that what pagans sacrifice they offer to demons and not to God. I o not want you to be participants with demons.</t>
+          <t>j Am I not free? k Am I not an apostle? l Have I not seen Jesus our Lord? m Are not you my workmanship in the Lord?</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>1 Corinthians 10:26</t>
+          <t>1 Corinthians 9:2</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>For the earth is the Lord's, and the fullness thereof.</t>
+          <t>If to others I am not an apostle, at least I am to you, for you are n the seal of my apostleship in the Lord.</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>1 Corinthians 10:27</t>
+          <t>1 Corinthians 9:3</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>If one of the unbelievers invites you to dinner and you are disposed to go, eat whatever is set before you without raising any question on the ground of conscience.</t>
+          <t>This is my defense to those who would examine me.</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>1 Corinthians 10:28</t>
+          <t>1 Corinthians 9:4</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>But if someone says to you, This has been offered in sacrifice, then do not eat it, for the sake of the one who informed you, and for the sake of conscienc e16</t>
+          <t>o Do we not have the right to eat and drink?</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>1 Corinthians 10:29</t>
+          <t>1 Corinthians 9:5</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>I o not mean your conscience, but his. For why should my liberty be determined by someone else's conscience</t>
+          <t>p Do we not have the right to take along a believing wife, as do the other apostles and q the brothers of the Lord and r Cephas?</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>1 Corinthians 10:30</t>
+          <t>1 Corinthians 9:6</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>If I partake with thankfulness, why am I denounced because of that for which I give thanks</t>
+          <t>Or is it only Barnabas and I who have no right to refrain from working for a living?</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>1 Corinthians 10:31</t>
+          <t>1 Corinthians 9:7</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>So, whether you eat or drink, or whatever you do, do all to the glory of God.</t>
+          <t>s Who serves as a soldier at his own expense? t Who plants a vineyard without eating any of its fruit? Or who tends a flock without getting some of the milk?</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>1 Corinthians 10:33</t>
+          <t>1 Corinthians 9:8</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>just as I try to please everyone in everything I do, not seeking my own advantage, but that of many, that they may be saved.</t>
+          <t>Do I say these things on human authority? Does not the Law say the same?</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>1 Corinthians 11:2</t>
+          <t>1 Corinthians 9:9</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Now I commend you because you remember me in everything and maintain the traditions even as I delivered them to you. 3</t>
+          <t>For it is written in the Law of Moses, u You shall not muzzle an ox when it treads out the grain. Is it for oxen that God is concerned?</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>1 Corinthians 11:3</t>
+          <t>1 Corinthians 9:10</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>But I want you to understand that the head of every man is Christ, the head of a wif16 e is her husband, and the head of Christ is God. 4</t>
+          <t>Does he not certainly speak for our sake? It was written v for our sake, because w the plowman should plow in hope and the thresher thresh in hope of sharing in the crop.</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>1 Corinthians 11:4</t>
+          <t>1 Corinthians 9:11</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Every man who prays or prophesies with his head covered dishonors his head, 5</t>
+          <t>x If we have sown spiritual things among you, is it too much if we reap material things from you?</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>1 Corinthians 11:5</t>
+          <t>1 Corinthians 9:12</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>but every wif16 e who prays or prophesies with her head uncovered dishonors her head, since it is the same as if her head were shaven. 6</t>
+          <t>If others share this rightful claim on you, do not we even more? Nevertheless, y we have not made use of this right, but we endure anything z rather than put an obstacle in the way of the gospel of Christ.</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>1 Corinthians 11:6</t>
+          <t>1 Corinthians 9:13</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>For if a wife will not cover her head, then she should cut her hair short. But since it is disgraceful for a wife to cut off her hair or shave her head, let her cover her head. 7</t>
+          <t>Do you not know that a those who are employed in the temple service get their food from the temple, and those who serve at the altar share in the sacrificial offerings?</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>1 Corinthians 11:7</t>
+          <t>1 Corinthians 9:14</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>For a man ought not to cover his head, since he is the image and glory of God, but woman is the glory of man. 8</t>
+          <t>In the same way, the Lord commanded that b those who proclaim the gospel should get their living by the gospel.</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>1 Corinthians 11:8</t>
+          <t>1 Corinthians 9:15</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>For man was not made from woman, but woman from man. 9</t>
+          <t>But c I have made no use of any of these rights, nor am I writing these things to secure any such provision. For I would rather die than have anyone d deprive me of my ground for boasting.</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>1 Corinthians 11:9</t>
+          <t>1 Corinthians 9:16</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Neither was man created for woman, but woman for man.</t>
+          <t>For if I preach the gospel, that gives me no ground for boasting. For e necessity is laid upon me. Woe to me if I do not preach the gospel!</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>1 Corinthians 11:10</t>
+          <t>1 Corinthians 9:17</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>That is why a wife ought to have a symbol of authority on her head, because of the angels.</t>
+          <t>For if I do this of my own will, I have a reward, but if not of my own will, I am still entrusted with f a stewardship.</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>1 Corinthians 11:11</t>
+          <t>1 Corinthians 9:18</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Nevertheless, in the Lord woman is not independent of man nor man of woman;</t>
+          <t>What then is my reward? That in my preaching g I may pre?sent the gospel free of charge, so as not to make full use of my right in the gospel.</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>1 Corinthians 11:12</t>
+          <t>1 Corinthians 9:19</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>for as woman was made from man, so man is now born of woman. And all things are from God.</t>
+          <t>For h though I am free from all, i I have made myself a servant to all, that I might j win more of them.</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>1 Corinthians 11:13</t>
+          <t>1 Corinthians 9:20</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Judge for yourselves: is it proper for a wife to pray to God with her head uncovered</t>
+          <t>k To the Jews I became as a Jew, in order to win Jews. To those under the law I became as one under the law that I might win those under the law.</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>1 Corinthians 11:14</t>
+          <t>1 Corinthians 9:21</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Does not nature itself teach you that if a man wears long hair it is a disgrace for him,</t>
+          <t>To l those outside the law I became m as one outside the law that I might win those outside the law.</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>1 Corinthians 11:15</t>
+          <t>1 Corinthians 9:22</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>but if a woman has long hair, it is her glory For her hair is given to her for a covering.</t>
+          <t>o To the weak I became weak, that I might win the weak. p I have become all things to all people, that q by all means I might save some.</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>1 Corinthians 11:17</t>
+          <t>1 Corinthians 9:23</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>But in the following instructions I do not commend you, because when you come together it is not for the better but for the worse.</t>
+          <t>I do it all for the sake of the gospel, r that I may share with them in its blessings.</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>1 Corinthians 11:18</t>
+          <t>1 Corinthians 9:24</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>For, in the first place, when you come together as a church, I hear that there are divisions among you. And I believe it in part,</t>
+          <t>Do you not know that in a race all the runners run, but only one receives s the prize? So t run that you may obtain it.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>1 Corinthians 11:19</t>
+          <t>1 Corinthians 9:25</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>for there must be factions among you in order that those who are genuine among you may be recognized.</t>
+          <t>Every u athlete exercises self-control in all things. They do it to receive a perishable wreath, but we v an imperishable.</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>1 Corinthians 11:20</t>
+          <t>1 Corinthians 9:26</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>When you come together, it is not the Lord's supper that you eat.</t>
+          <t>So I do not run aimlessly; I w do not box as one x beating the air.</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>1 Corinthians 11:21</t>
+          <t>1 Corinthians 9:27</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>For in eating, each one goes ahead with his own meal. One goes hungry, another gets drunk.</t>
+          <t>But I discipline my body and y keep it under control, lest after preaching to others z I myself should be a disqualified. Warning Against Idolatry</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>1 Corinthians 11:22</t>
+          <t>1 Corinthians 10:1</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>What! Do you not have houses to eat and drink in Or do you despise the church of God and humiliate those who have nothing What shall I say to you Shall I commend you in this No, I will not.</t>
+          <t>For I do not want you to be unaware, brothers, that our fathers were all under b the cloud, and all c passed through the sea,</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>1 Corinthians 11:23</t>
+          <t>1 Corinthians 10:2</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>For I received from the Lord what I also delivered to you, that the Lord Jesus on the night when he was betrayed took bread,</t>
+          <t>and all were baptized into Moses in the cloud and in the sea,</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>1 Corinthians 11:24</t>
+          <t>1 Corinthians 10:3</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>and when he had given thanks, he broke it, and said, This is my body, which is for 1 ou. Do this in remembrance of me.</t>
+          <t>and d all ate the same e spiritual food,</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>1 Corinthians 11:25</t>
+          <t>1 Corinthians 10:4</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>In the same way also he took the cup, after supper, saying, This cup is the new cov173 enant in my blood. Do this, as often as you drink it, in remembrance of me.</t>
+          <t>and f all drank the same spiritual drink. For they drank from the spiritual Rock that followed them, and the Rock was Christ.</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>1 Corinthians 11:26</t>
+          <t>1 Corinthians 10:5</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>For as often as you eat this bread and drink the cup, you proclaim the Lord's death until he comes.</t>
+          <t>Nevertheless, with most of them God was not pleased, for g they were overthrow n in the wilderness.</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>1 Corinthians 11:29</t>
+          <t>1 Corinthians 10:6</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>For anyone who eats and drinks without discerning the body eats and drinks judgment on himself.</t>
+          <t>Now these things took place as examples for us, that we might not desire evil as h they did.</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>1 Corinthians 11:30</t>
+          <t>1 Corinthians 10:7</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>That is why many of you are weak and ill, and some have died.</t>
+          <t>i Do not be idolaters j as some of them were; as it is written, k The people sat down to eat and drink and rose up to play.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>1 Corinthians 11:32</t>
+          <t>1 Corinthians 10:8</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>But when we are judged by the Lord, we are discipline16 d so that we may not be condemned along with the world.</t>
+          <t>l We must not indulge in sexual immorality m as some of them did, and n twenty-three thousand fell in a single day.</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>1 Corinthians 11:33</t>
+          <t>1 Corinthians 10:9</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>So then, my brothers, when you come together to eat, wait fo16 r one anothe16 r16</t>
+          <t>We must not put Chris t to the test, o as some of them did and p were destroyed by serpents,</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:1</t>
+          <t>1 Corinthians 10:10</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Now concernin16 g spiritual gifts, 1 brothers, I do not want you to be uninformed. 2</t>
+          <t>nor grumble, q as some of them did and r were destroyed by s the Destroyer.</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:2</t>
+          <t>1 Corinthians 10:11</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>You know that when you were pagans you were led astray to mute idols, however you were led. 3</t>
+          <t>Now these things happened to them as an example, but t they were written down for our instruction, u on whom the end of the ages has come.</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:3</t>
+          <t>1 Corinthians 10:12</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Therefore I want you to understand that no one speaking in the Spirit of God ever says Jesus is accursed! and no one can say Jesus is Lord except in the Holy Spirit. 4</t>
+          <t>Therefore v let anyone who thinks that he stands take heed lest he fall.</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:4</t>
+          <t>1 Corinthians 10:13</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Now there are varieties of gifts, but the same Spirit; 5</t>
+          <t>No temptation has overtaken you that is not common to man. w God is faithful, and x he will not let you be tempted beyond your ability, but with the temptation he will also provide the way of escape, that you may be able to endure it.</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:5</t>
+          <t>1 Corinthians 10:14</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>and there are varieties of service, but the same Lord; 6</t>
+          <t>Therefore, my beloved, y flee from idolatry.</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:6</t>
+          <t>1 Corinthians 10:15</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>and there are varieties of activities, but it is the same God who empowers them all in everyone. 7</t>
+          <t>I speak z as to sensible people; judge for yourselves what I say.</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:8</t>
+          <t>1 Corinthians 10:16</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>For to one is given through the Spirit the utterance of wisdom, and to another the utterance of knowledge according to the same Spirit, 9</t>
+          <t>a The cup of blessing that we bless, is it not a participation in the blood of Christ? b The bread that we break, is it not a participation in the body of Christ?</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:9</t>
+          <t>1 Corinthians 10:17</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>to another faith by the same Spirit, to another gifts of healing by the one Spirit,</t>
+          <t>Because there is one bread, we who are many are c one body, for we all partake of the one bread.</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:10</t>
+          <t>1 Corinthians 10:18</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>to another the working of miracles, to another prophecy, to another the ability to distinguish between spirits, to another various kinds of tongues, to another the interpretation of tongues.</t>
+          <t>Consider d the people of Israel:</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:11</t>
+          <t>1 Corinthians 10:19</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>All these are empowered by one and the same Spirit, who apportions to each one individually as he wills. One Body with Many Members</t>
+          <t>e are not those who eat the sacrifices participants in the altar?</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:12</t>
+          <t>1 Corinthians 10:19</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>For just as the body is one and has many members, and all the members of the body, though many, are one body, so it is with Christ.</t>
+          <t>What do I imply then? That food offered to idols is anything, or that f an idol is anything?</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:13</t>
+          <t>1 Corinthians 10:20</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>For in one Spirit we were all baptized into one bod16 y Jews or Greeks, slave16's or fre16 e and all were made to drink of one Spirit.</t>
+          <t>No, I imply that what pagans sacrifice g they offer to demons and not to God. I do not want you to be participants with demons.</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:14</t>
+          <t>1 Corinthians 10:21</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>For the body does not consist of one member but of many.</t>
+          <t>h You cannot drink the cup of the Lord and i the cup of demons. You cannot partake of the table of the Lord and j the table of demons.</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:15</t>
+          <t>1 Corinthians 10:22</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>If the foot should say, Because I am not a hand, I o not belong to the body, that would not make it any less a part of the body.</t>
+          <t>k Shall we provoke the Lord to jealousy? l Are we stronger than he? Do All to the Glory of God</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:16</t>
+          <t>1 Corinthians 10:23</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>And if the ear should say, Because I am not an eye, I o not belong to the body, that would not make it any less a part of the body.</t>
+          <t>m All things are lawful, but not all things are helpful. All things are lawful, but not all things build up.</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:17</t>
+          <t>1 Corinthians 10:24</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>If the whole body were an eye, where would be the sense of hearing If the whole body were an ear, where would be the sense of smell</t>
+          <t>n Let no one seek his own good, but the good of his neighbor.</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:18</t>
+          <t>1 Corinthians 10:25</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>But as it is, God arranged the members in the body, each one of them, as he chose.</t>
+          <t>o Eat whatever is sold in the meat market without raising any question on the ground of conscience.</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:19</t>
+          <t>1 Corinthians 10:26</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>If all were a single member, where would the body be</t>
+          <t>For p the earth is the Lord s, and the fullness thereof.</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:20</t>
+          <t>1 Corinthians 10:27</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>As it is, there are many parts, yet one body.</t>
+          <t>If one of the unbelievers invites you to dinner and you are disposed to go, q eat whatever is set before you without raising any question on the ground of conscience.</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:21</t>
+          <t>1 Corinthians 10:28</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>The eye cannot say to the hand, I have no need of you, nor again the head to the feet, I have no need of you.</t>
+          <t>But if someone says to you, This has been offered in sacrifice, then do not eat it, for the sake of the one who informed you, and for the sake of conscienc e</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:22</t>
+          <t>1 Corinthians 10:29</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>On the contrary, the parts of the body that seem to be weaker are indispensable,</t>
+          <t>I do not mean r your conscience, but his. For s why should my liberty be determined by someone else s conscience?</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:23</t>
+          <t>1 Corinthians 10:30</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>and on those parts of the body that we think less honorable we bestow the greater honor, and our unpresentable parts are treated with greater modesty,</t>
+          <t>If I partake with thankfulness, why am I denounced because of that t for which I give thanks?</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:24</t>
+          <t>1 Corinthians 10:31</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>which our more presentable parts do not require. But God has so composed the body, giving greater honor to the part that lacked it,</t>
+          <t>So, whether you eat or drink, or u whatever you do, do all to the glory of God.</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:25</t>
+          <t>1 Corinthians 10:32</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>that there may be no division in the body, but that the members may have the same care for one another.</t>
+          <t>v Give no offense to Jews or to Greeks or to w the church of God,</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:26</t>
+          <t>1 Corinthians 10:33</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>If one member suffers, all suffer together; if one member is honored, all rejoice together.</t>
+          <t>just as x I try to please everyone in everything I do, y not seeking my own advantage, but that of many, that they may be saved.</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:27</t>
+          <t>1 Corinthians 10:34</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Now you are the body of Christ and individually members of it.</t>
+          <t>z Be imitators of me, as I am of Christ. Head Coverings</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:28</t>
+          <t>1 Corinthians 11:2</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>And God has appointed in the church first apostles, second prophets, third teachers, then miracles, then gifts of healing, helping, administrating, and various kinds of tongues.</t>
+          <t>Now I commend you a because you remember me in everything and b maintain the traditions c even as I delivered them to you.</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:29</t>
+          <t>1 Corinthians 11:3</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Are all apostles Are all prophets Are all teachers Do all work miracles</t>
+          <t>But I want you to understand that d the head of every man is Christ, e the head of a wif e is her husband, and f the head of Christ is God.</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:30</t>
+          <t>1 Corinthians 11:4</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Do all possess gifts of healing Do all speak with tongues Do all interpret</t>
+          <t>Every man who prays or prophesies with his head covered dishonors his head,</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>1 Corinthians 12:31</t>
+          <t>1 Corinthians 11:5</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>But earnestly desire the higher gifts. And I will show you a still more excellent way. The Way of Love</t>
+          <t>but every wif e who prays or g prophesies h with her head uncovered dishonors her head, since it is the same i as if her head were shaven.</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>1 Corinthians 13:1</t>
+          <t>1 Corinthians 11:6</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>If I speak in the tongues of men and of angels, but have not love, I m a noisy gong or a clanging cymbal. 2</t>
+          <t>For if a wife will not cover her head, then she should cut her hair short. But since it is disgraceful for a wife to cut off her hair or shave her head, let her cover her head.</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>1 Corinthians 13:2</t>
+          <t>1 Corinthians 11:7</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>And if I have prophetic powers, and understand all mysteries and all knowledge, and if I have all faith, so as to remove mountains, but have not love, I m nothing. 3</t>
+          <t>For a man ought not to cover his head, since j he is the image and glory of God, but k woman is the glory of man.</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>1 Corinthians 13:5</t>
+          <t>1 Corinthians 11:8</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>or rude. It does not insist on its own way; it is not irritable or resentful; 6</t>
+          <t>For l man was not made from woman, but woman from man.</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>1 Corinthians 13:6</t>
+          <t>1 Corinthians 11:9</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>it does not rejoice at wrongdoing, but rejoices with the truth. 7</t>
+          <t>Neither was man created for woman, but m woman for man.</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>1 Corinthians 13:8</t>
+          <t>1 Corinthians 11:10</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Love never ends. As for prophecies, they will pass away; as for tongues, they will cease; as for knowledge, it will pass away. 9</t>
+          <t>That is why a wife ought to have a symbol of authority on her head, because of the angels.</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>1 Corinthians 13:9</t>
+          <t>1 Corinthians 11:11</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>For we know in part and we prophesy in part,</t>
+          <t>Nevertheless, n in the Lord woman is not independent of man nor man of woman;</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>1 Corinthians 13:10</t>
+          <t>1 Corinthians 11:12</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>but when the perfect comes, the partial will pass away.</t>
+          <t>for as woman was made from man, so man is now born of woman. And o all things are from God.</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>1 Corinthians 13:11</t>
+          <t>1 Corinthians 11:13</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>When I was a child, I spoke like a child, I thought like a child, I reasoned like a child. When I became a man, I gave up childish ways.</t>
+          <t>Judge for yourselves: is it proper for a wife to pray to God with her head uncovered?</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>1 Corinthians 13:12</t>
+          <t>1 Corinthians 11:14</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>For now we see in a mirror dimly, but then face to face. Now I know in part; then I shall know fully, even as I have been fully known.</t>
+          <t>Does not nature itself teach you that if a man wears long hair it is a disgrace for him,</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>1 Corinthians 13:13</t>
+          <t>1 Corinthians 11:15</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>So now faith, hope, and love abide, these three; but the greatest of these is love. Prophecy and Tongues</t>
+          <t>but if a woman has long hair, it is her glory? For her hair is given to her for a covering.</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:2</t>
+          <t>1 Corinthians 11:16</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>For one who speaks in a tongue speaks not to men but to God; for no one understands him, but he utters mysteries in the Spirit. 3</t>
+          <t>p If anyone is inclined to be contentious, we have no such practice, nor do q the churches of God. The Lord s Supper</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:3</t>
+          <t>1 Corinthians 11:17</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>On the other hand, the one who prophesies speaks to people for their upbuilding and encouragement and consolation. 4</t>
+          <t>But in the following instructions I do not commend you, because when you come together it is not for the better but for the worse.</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:4</t>
+          <t>1 Corinthians 11:18</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>The one who speaks in a tongue builds up himself, but the one who prophesies builds up the church. 5</t>
+          <t>For, in the first place, when you come together as a church, r I hear that there are divisions among you. And I believe it in part,</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:5</t>
+          <t>1 Corinthians 11:19</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Now I want you all to speak in tongues, but even more to prophesy. The one who prophesies is greater than the one who speaks in tongues, unless someone interprets, so that the church may be built up. 6</t>
+          <t>for s there must be factions among you in order t that those who are genuine among you may be recognized.</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:6</t>
+          <t>1 Corinthians 11:20</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Now, brothers, if I come to you speaking in tongues, how will I benefit you unless I bring you some revelation or knowledge or prophecy or teaching 7</t>
+          <t>When you come together, it is not the Lord s supper that you eat.</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:7</t>
+          <t>1 Corinthians 11:21</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>If even lifeless instruments, such as the flute or the harp, do not give distinct notes, how will anyone know what is played 8</t>
+          <t>For in eating, each one goes ahead with his own meal. One goes hungry, u another gets drunk.</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:8</t>
+          <t>1 Corinthians 11:22</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>And if the bugle gives an indistinct sound, who will get ready for battle 9</t>
+          <t>What! Do you not have houses to eat and drink in? Or do you despise v the church of God and w humiliate those who have nothing? What shall I say to you? Shall I commend you in this? No, I will not.</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:9</t>
+          <t>1 Corinthians 11:23</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>So with yourselves, if with your tongue you utter speech that is not intelligible, how will anyone know what is said For you will be speaking into the air.</t>
+          <t>For x I received from the Lord what I also delivered to you, that y the Lord Jesus on the night when he was betrayed took bread,</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:10</t>
+          <t>1 Corinthians 11:24</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>There are doubtless many different languages in the world, and none is without meaning,</t>
+          <t>and when he had given thanks, he broke it, and said, This is my body, which is for</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:11</t>
+          <t>1 Corinthians 11:25</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>but if I do not know the meaning of the language, I will be a foreigner to the speaker and the speaker a foreigner to me.</t>
+          <t>you. Do this in remembrance of me.</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:12</t>
+          <t>1 Corinthians 11:25</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>So with yourselves, since you are eager for manifestations of the Spirit, strive to excel in building up the church.</t>
+          <t>In the same way also he took the cup, after supper, saying, This cup is the new cov?enant in my blood. Do this, as often as you drink it, in remembrance of me.</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:13</t>
+          <t>1 Corinthians 11:26</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Therefore, one who speaks in a tongue should pray that he may interpret.</t>
+          <t>For as often as you eat this bread and drink the cup, you proclaim the Lord s death z until he comes.</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:14</t>
+          <t>1 Corinthians 11:27</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>For if I pray in a tongue, my spirit prays but my mind is unfruitful.</t>
+          <t>a Whoever, therefore, eats the bread or drinks the cup of the Lord b in an unworthy manner will be guilty concerning c the body and blood of the Lord.</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:15</t>
+          <t>1 Corinthians 11:28</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>What am I to do I will pray with my spirit, but I will pray with my mind also; I will sing praise with my spirit, but I will sing with my mind also.</t>
+          <t>d Let a person examine himself, then, and so eat of the bread and drink of the cup.</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:16</t>
+          <t>1 Corinthians 11:29</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Otherwise, if you give thanks with your spirit, how can anyone in the position of an outside r say Amen to your thanksgiving when he does not know what you are saying</t>
+          <t>For anyone who eats and drinks without discerning the body eats and drinks judgment on himself.</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:17</t>
+          <t>1 Corinthians 11:30</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>For you may be giving thanks well enough, but the other person is not being built up.</t>
+          <t>That is why many of you are weak and ill, and some e have died.</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:18</t>
+          <t>1 Corinthians 11:31</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>I thank God that I speak in tongues more than all of you.</t>
+          <t>f But if we judge d ourselves truly, we would not be judged.</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:19</t>
+          <t>1 Corinthians 11:32</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Nevertheless, in church I would rather speak five words with my mind in order to instruct others, than ten thousand words in a tongue.</t>
+          <t>But when we are judged by the Lord, g we are discipline d so that we may not be h condemned along with the world.</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:20</t>
+          <t>1 Corinthians 11:33</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Brothers, do not be children in your thinking. Be infants in evil, but in your thinking be mature.</t>
+          <t>So then, my brothers, when you come together to eat, wait fo r one anothe r</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:22</t>
+          <t>1 Corinthians 11:34</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Thus tongues are a sign not for believers but for unbelievers, while prophecy is a sig n not for unbelievers but for believers.</t>
+          <t>i if anyone is hungry, j let him eat at hom e so that when you come together it will not be for judgment. About the other things k I will give directions l when I come. Spiritual Gifts</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:23</t>
+          <t>1 Corinthians 12:1</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>If, therefore, the whole church comes together and all speak in tongues, and outsiders or unbelievers enter, will they not say that you are out of your minds</t>
+          <t>Now m concernin g spiritual gifts, brothers, I do not want you to be uninformed.</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:24</t>
+          <t>1 Corinthians 12:2</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>But if all prophesy, and an unbeliever or outsider enters, he is convicted by all, he is called to account by all,</t>
+          <t>You know that n when you were pagans o you were led astray to p mute idols, however you were led.</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:26</t>
+          <t>1 Corinthians 12:3</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>What then, brothers When you come together, each one has a hymn, a lesson, a revelation, a tongue, or an interpretation. Let all things be done for building up.</t>
+          <t>Therefore I want you to understand that q no one speaking in the Spirit of God ever says Jesus is r accursed! and s no one can say Jesus is Lord except in the Holy Spirit.</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:27</t>
+          <t>1 Corinthians 12:4</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>If any speak in a tongue, let there be only two or at most three, and each in turn, and let someone interpret.</t>
+          <t>Now t there are varieties of gifts, but u the same Spirit;</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:28</t>
+          <t>1 Corinthians 12:5</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>But if there is no one to interpret, let each of them keep silent in church and speak to himself and to God.</t>
+          <t>and v there are varieties of service, but u the same Lord;</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:29</t>
+          <t>1 Corinthians 12:6</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Let two or three prophets speak, and let the others weigh what is said.</t>
+          <t>and there are varieties of activities, but it is u the same God who empowers them all in everyone.</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:30</t>
+          <t>1 Corinthians 12:7</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>If a revelation is made to another sitting there, let the first be silent.</t>
+          <t>w To each is given the manifestation of the Spirit for the common good.</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:31</t>
+          <t>1 Corinthians 12:8</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>For you can all prophesy one by one, so that all may learn and all be encouraged,</t>
+          <t>For to one is given through the Spirit the utterance of x wisdom, and to another the utterance of y knowledge according to the same Spirit,</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:32</t>
+          <t>1 Corinthians 12:9</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>and the spirits of prophets are subject to prophets.</t>
+          <t>to another z faith by the same Spirit, to another a gifts of healing by the one Spirit,</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:33</t>
+          <t>1 Corinthians 12:10</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>For God is not a God of confusion but of peace. As in all the churches of the saints,</t>
+          <t>to another b the working of miracles, to another c prophecy, to another d the ability to distinguish between spirits, to another e various kinds of tongues, to another f the interpretation of tongues.</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:35</t>
+          <t>1 Corinthians 12:11</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>If there is anything they desire to learn, let them ask their husbands at home. For it is shameful for a woman to speak in church.</t>
+          <t>All these are empowered by one and the same Spirit, g who apportions to each one individually h as he wills. One Body with Many Members</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:36</t>
+          <t>1 Corinthians 12:12</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Or was it from you that the word of God came Or are you the only ones it has reached</t>
+          <t>For just as i the body is one and has many members, and all the members of the body, though many, are one body, j so it is with Christ.</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:38</t>
+          <t>1 Corinthians 12:13</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>If anyone does not recognize this, he is not recognized.</t>
+          <t>For k in one Spirit we were all baptized into one bod y l Jews or Greeks, slave s or fre e and m all were made to drink of one Spirit.</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>1 Corinthians 14:39</t>
+          <t>1 Corinthians 12:14</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>So, my brothers, earnestly desire to prophesy, and do not forbid speaking in tongues.</t>
+          <t>For the body does not consist of one member but of many.</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:1</t>
+          <t>1 Corinthians 12:15</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Now I would remind you, brothers, of the gospel I preached to you, which you received, in which you stand, 2</t>
+          <t>If the foot should say, Because I am not a hand, I do not belong to the body, that would not make it any less a part of the body.</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:2</t>
+          <t>1 Corinthians 12:16</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>and by which you are being saved, if you hold fast to the word I preached to yo u unless you believed in vain. 3</t>
+          <t>And if the ear should say, Because I am not an eye, I do not belong to the body, that would not make it any less a part of the body.</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:3</t>
+          <t>1 Corinthians 12:17</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>For I livered to you as of first importance what I also received: that Christ died for our sins in accordance with the Scriptures, 4</t>
+          <t>If the whole body were an eye, where would be the sense of hearing? If the whole body were an ear, where would be the sense of smell?</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:4</t>
+          <t>1 Corinthians 12:18</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>that he was buried, that he was raised on the third day in accordance with the Scriptures, 5</t>
+          <t>But as it is, n God arranged the members in the body, each one of them, o as he chose.</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:5</t>
+          <t>1 Corinthians 12:19</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>and that he appeared to Cephas, then to the twelve. 6</t>
+          <t>If all were a single member, where would the body be?</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:6</t>
+          <t>1 Corinthians 12:20</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Then he appeared to more than five hundred brothers at one time, most of whom are still alive, though some have fallen asleep. 7</t>
+          <t>As it is, there are many parts, yet one body.</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:7</t>
+          <t>1 Corinthians 12:21</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Then he appeared to James, then to all the apostles. 8</t>
+          <t>The eye cannot say to the hand, I have no need of you, nor again the head to the feet, I have no need of you.</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:8</t>
+          <t>1 Corinthians 12:22</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Last of all, as to one untimely born, he appeared also to me. 9</t>
+          <t>On the contrary, the parts of the body that seem to be weaker are indispensable,</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:9</t>
+          <t>1 Corinthians 12:23</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>For I m the least of the apostles, unworthy to be called an apostle, because I persecuted the church of God.</t>
+          <t>and on those parts of the body that we think less honorable we bestow the greater honor, and our unpresentable parts are treated with greater modesty,</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:10</t>
+          <t>1 Corinthians 12:24</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>But by the grace of God I am what I am, and his grace toward me was not in vain. On the contrary, I worked harder than any of them, though it was not I, but the grace of God that is with me.</t>
+          <t>which our more presentable parts do not require. But God has so composed the body, giving greater honor to the part that lacked it,</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:11</t>
+          <t>1 Corinthians 12:25</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Whether then it was I or they, so we preach and so you believed. The Resurrection of the Dead</t>
+          <t>that there may be no division in the body, but that the members may have the same care for one another.</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:12</t>
+          <t>1 Corinthians 12:26</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Now if Christ is proclaimed as raised from the dead, how can some of you say that there is no resurrection of the dead</t>
+          <t>If one member suffers, all suffer together; if one member is honored, p all rejoice together.</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:13</t>
+          <t>1 Corinthians 12:27</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>But if there is no resurrection of the dead, then not even Christ has been raised.</t>
+          <t>Now q you are the body of Christ and individually r members of it.</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:14</t>
+          <t>1 Corinthians 12:28</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>And if Christ has not been raised, then our preaching is in vain and your faith is in vain.</t>
+          <t>And s God has appointed in the church first t apostles, second u prophets, third teachers, then v miracles, then w gifts of healing, x helping, y administrating, and v various kinds of tongues.</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:15</t>
+          <t>1 Corinthians 12:29</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>We are even found to be misrepresenting God, because we testified about God that he raised Christ, whom he did not raise if it is true that the dead are not raised.</t>
+          <t>Are all apostles? Are all prophets? Are all teachers? Do all work miracles?</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:16</t>
+          <t>1 Corinthians 12:30</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>For if the dead are not raised, not even Christ has been raised.</t>
+          <t>Do all possess gifts of healing? Do all speak with tongues? Do all interpret?</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:17</t>
+          <t>1 Corinthians 12:31</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>And if Christ has not been raised, your faith is futile and you are still in your sins.</t>
+          <t>But z earnestly desire the higher gifts. And I will show you a still more excellent way. The Way of Love</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:18</t>
+          <t>1 Corinthians 13:1</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Then those also who have fallen asleep in Christ have perished.</t>
+          <t>If I speak in the tongues of men and of angels, but have not love, I am a noisy gong or a clanging cymbal.</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:19</t>
+          <t>1 Corinthians 13:2</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>If in Christ we have hop16 e in this life only, we are of all people most to be pitied.</t>
+          <t>And if I have a prophetic powers, and understand all mysteries and all knowledge, and if I have all faith, b so as to remove mountains, but have not love, I am nothing.</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:20</t>
+          <t>1 Corinthians 13:3</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>But in fact Christ has been raised from the dead, the firstfruits of those who have fallen asleep.</t>
+          <t>c If I give away all I have, and d if I deliver up my body to be burned, but have not love, I gain nothing.</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:21</t>
+          <t>1 Corinthians 13:4</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>For as by a man came death, by a man has come also the resurrection of the dead.</t>
+          <t>e Love is patient and f kind; love g does not envy or boast; it h is not arrogant</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:22</t>
+          <t>1 Corinthians 13:5</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>For as in Adam all die, so also in Christ shall all be made alive.</t>
+          <t>or rude. It i does not insist on its own way; it j is not irritable or resentful;</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:23</t>
+          <t>1 Corinthians 13:6</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>But each in his own order: Christ the firstfruits, then at his coming those who belong to Christ.</t>
+          <t>it k does not rejoice at wrongdoing, but l rejoices with the truth.</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:24</t>
+          <t>1 Corinthians 13:7</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Then comes the end, when he delivers the kingdom to God the Father after destroying every rule and every authority and power.</t>
+          <t>m Love bears all things, believes all things, hopes all things, e endures all things.</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:25</t>
+          <t>1 Corinthians 13:8</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>For he must reign until he has put all his enemies under his feet.</t>
+          <t>Love never ends. As for prophecies, they will pass away; as for tongues, they will cease; as for knowledge, it will pass away.</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:26</t>
+          <t>1 Corinthians 13:9</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>The last enemy to be destroyed is death.</t>
+          <t>For n we know in part and we prophesy in part,</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:27</t>
+          <t>1 Corinthians 13:10</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>For Go16 d has put all things in subjection under his feet. But when it says, all things are put in subjection, it is plain that he is excepted who put all things in subjection under him.</t>
+          <t>but o when the perfect comes, the partial will pass away.</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:28</t>
+          <t>1 Corinthians 13:11</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>When all things are subjected to him, then the Son himself will also be subjected to him who put all things in subjection under him, that God may be all in all.</t>
+          <t>When I was a child, I spoke like a child, I thought like a child, I reasoned like a child. When I became a man, I gave up childish ways.</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:29</t>
+          <t>1 Corinthians 13:12</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Otherwise, what do people mean by being baptized on behalf of the dead If the dead are not raised at all, why are people baptized on their behalf</t>
+          <t>For p now we see in a mirror dimly, but q then face to face. Now I know in part; then I shall know fully, even as r I have been fully known.</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:30</t>
+          <t>1 Corinthians 13:13</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Why are we in danger every hour</t>
+          <t>So now faith, hope, and love abide, these three; but the greatest of these is love. Prophecy and Tongues</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:31</t>
+          <t>1 Corinthians 13:14</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>I protest, brothers, by my pride in you, which I have in Christ Jesus our Lord, I ie every day!</t>
+          <t>s Pursue love, and t earnestly desire the u spiritual gifts, especially that you may v prophesy.</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:32</t>
+          <t>1 Corinthians 14:2</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>What do I gain if, humanly speaking, I ought with beasts at Ephesus If the dead are not raised, Let us eat and drink, for tomorrow we die.</t>
+          <t>For w one who speaks in a tongue speaks not to men but to God; for no one understands him, but he utters mysteries in the Spirit.</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:35</t>
+          <t>1 Corinthians 14:3</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>But someone will ask, How are the dead raised With what kind of body do they come</t>
+          <t>On the other hand, the one who prophesies speaks to people for their upbuilding and encouragement and consolation.</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:36</t>
+          <t>1 Corinthians 14:4</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>You foolish person! What you sow does not come to life unless it dies.</t>
+          <t>The one who speaks in a tongue builds up himself, but the one who prophesies builds up the church.</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:37</t>
+          <t>1 Corinthians 14:5</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>And what you sow is not the body that is to be, but a bare kernel, perhaps of wheat or of some other grain.</t>
+          <t>Now I want you all to speak in tongues, but x even more to prophesy. The one who prophesies is greater than the one who speaks in tongues, unless someone interprets, so that the church may be built up.</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:38</t>
+          <t>1 Corinthians 14:6</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>But God gives it a body as he has chosen, and to each kind of seed its own body.</t>
+          <t>Now, brothers, if I come to you speaking in tongues, how will I benefit you unless I bring you some y revelation or knowledge or prophecy or z teaching?</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:39</t>
+          <t>1 Corinthians 14:7</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>For not all flesh is the same, but there is one kind for humans, another for animals, another for birds, and another for fish.</t>
+          <t>If even lifeless instruments, such as the flute or the harp, do not give distinct notes, how will anyone know what is played?</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:40</t>
+          <t>1 Corinthians 14:8</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>There are heavenly bodies and earthly bodies, but the glory of the heavenly is of one kind, and the glory of the earthly is of another.</t>
+          <t>And a if the bugle gives an indistinct sound, who will get ready for battle?</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:41</t>
+          <t>1 Corinthians 14:9</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>There is one glory of the sun, and another glory of the moon, and another glory of the stars; for star differs from star in glory.</t>
+          <t>So with yourselves, if with your tongue you utter speech that is not intelligible, how will anyone know what is said? For you will be b speaking into the air.</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:43</t>
+          <t>1 Corinthians 14:10</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>It is sown in dishonor; it is raised in glory. It is sown in weakness; it is raised in power.</t>
+          <t>There are doubtless many different languages in the world, and none is without meaning,</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:44</t>
+          <t>1 Corinthians 14:11</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>It is sown a natural body; it is raised a spiritual body. If there is a natural body, there is also a spiritual body.</t>
+          <t>but if I do not know the meaning of the language, I will be c a foreigner to the speaker and the speaker a foreigner to me.</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:45</t>
+          <t>1 Corinthians 14:12</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Thus it is written, The first man Adam became a living being ; the last Adam became a life- giving spirit.</t>
+          <t>So with yourselves, since you are eager for manifestations of the Spirit, strive to excel in building up the church.</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:46</t>
+          <t>1 Corinthians 14:13</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>But it is not the spiritual that is first but the natural, and then the spiritual.</t>
+          <t>Therefore, one who speaks in a tongue should pray that he may interpret.</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:48</t>
+          <t>1 Corinthians 14:14</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>As was the man of dust, so also are those who are of the dust, and as is the man of heaven, so also are those who are of heaven.</t>
+          <t>For if I pray in a tongue, my spirit prays but my mind is unfruitful.</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:49</t>
+          <t>1 Corinthians 14:15</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Just as we have borne the image of the man of dust, we shal16 l also bear the image of the man of heaven. Mystery and Victory</t>
+          <t>What am I to do? I will pray with my spirit, but I will pray with my mind also; d I will sing praise with my spirit, but I will e sing with my mind also.</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:50</t>
+          <t>1 Corinthians 14:16</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>I tell you this, brothers: flesh and blood cannot inherit the kingdom of God, nor does the perishable inherit the imperishable.</t>
+          <t>Otherwise, if you give thanks with your spirit, how can anyone in the position of an outside r say f Amen to g your thanksgiving when he does not know what you are saying?</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:51</t>
+          <t>1 Corinthians 14:17</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Behold! I tell you a mystery. We shall not all sleep, but we shall all be changed,</t>
+          <t>For you may be giving thanks well enough, but the other person is not being built up.</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:52</t>
+          <t>1 Corinthians 14:18</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>in a moment, in the twinkling of an eye, at the last trumpet. For the trumpet will sound, and the dead will be raised imperishable, and we shall be changed.</t>
+          <t>I thank God that I speak in tongues more than all of you.</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:53</t>
+          <t>1 Corinthians 14:19</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>For this perishable body must put on the imperishable, and this mortal body must put on immortality.</t>
+          <t>Nevertheless, in church I would rather speak five words with my mind in order to instruct others, than ten thousand words in a tongue.</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:54</t>
+          <t>1 Corinthians 14:20</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>When the perishable puts on the imperishable, and the mortal puts on immortality, then shall come to pass the saying that is written: - Death is swallowed up in victory. -</t>
+          <t>Brothers, h do not be children in your thinking. i Be infants in evil, but in your thinking be j mature.</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:55</t>
+          <t>1 Corinthians 14:21</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>O th, where is your victory - O th, where is your sting</t>
+          <t>k In the Law it is written, l By people of strange tongues and by the lips of foreigners will I speak to this people, and even then they will not listen to me, says the Lord.</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:56</t>
+          <t>1 Corinthians 14:22</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>The sting of death is sin, and the power of sin is the law.</t>
+          <t>Thus tongues are a sign not for believers but for unbelievers, while prophecy is a sig n not for unbelievers but for believers.</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>1 Corinthians 15:57</t>
+          <t>1 Corinthians 14:23</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>But thanks be to God, who gives us the victory through our Lord Jesus Christ.</t>
+          <t>If, therefore, the whole church comes together and all speak in tongues, and outsiders or unbelievers enter, m will they not say that you are out of your minds?</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>1 Corinthians 16:1</t>
+          <t>1 Corinthians 14:24</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Now concernin16 g the collection for the saints: as I directed the churches of Galatia, so you also are to do. 2</t>
+          <t>But if all prophesy, and an unbeliever or outsider enters, he is convicted by all, he is called to account by all,</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>1 Corinthians 16:2</t>
+          <t>1 Corinthians 14:25</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>On the first day of every week, each of you is to put something aside and store it up, as he may prosper, so that there will be no collecting when I come. 3</t>
+          <t>n the secrets of his heart are disclosed, and so, o falling on his face, he will worship God and p declare that God is really among you. Orderly Worship</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>1 Corinthians 16:3</t>
+          <t>1 Corinthians 14:26</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>And when I arrive, I will send those whom you accredit by letter to carry your gift to Jerusalem. 4</t>
+          <t>What then, brothers? When you come together, each one has q a hymn, r a lesson, r a revelation, s a tongue, or t an interpretation. u Let all things be done for building up.</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>1 Corinthians 16:4</t>
+          <t>1 Corinthians 14:27</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>If it seems advisable that I should go also, they will accompany me. Plans for Travel 5</t>
+          <t>If any speak in s a tongue, let there be only two or at most three, and each in turn, and let someone interpret.</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>1 Corinthians 16:6</t>
+          <t>1 Corinthians 14:28</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>and perhaps I will stay with you or even spend the winter, so that you may help me on my journey, wherever I go. 7</t>
+          <t>But if there is no one to interpret, let each of them keep silent in church and speak to himself and to God.</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>1 Corinthians 16:7</t>
+          <t>1 Corinthians 14:29</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>For I do not want to see you now just in passing. I hope to spend some time with you, if the Lord permits. 8</t>
+          <t>Let two or three prophets speak, and let the others v weigh what is said.</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>1 Corinthians 16:8</t>
+          <t>1 Corinthians 14:30</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>But I will stay in Ephesus until Pentecost, 9</t>
+          <t>If a revelation is made to another sitting there, w let the first be silent.</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>1 Corinthians 16:9</t>
+          <t>1 Corinthians 14:31</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>for a wide door for effective work has opened to me, and there are many adversaries.</t>
+          <t>For you can all prophesy one by one, so that all may learn and all be encouraged,</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>1 Corinthians 16:11</t>
+          <t>1 Corinthians 14:32</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>So let no one despise him. Help him on his way in peace, that he may return to me, for I am expecting him with the brothers. Final Instructions</t>
+          <t>and the spirits of prophets are subject to prophets.</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>1 Corinthians 16:12</t>
+          <t>1 Corinthians 14:33</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Now concerning our brother Apollos, I strongly urged him to visit you with the other brothers, but it was not at all his wil l to come now. He will come when he has opportunity.</t>
+          <t>For God is not a God of x confusion but of peace. As in y all the churches of the saints,</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>1 Corinthians 16:15</t>
+          <t>1 Corinthians 14:34</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Now I urge you, brother's you know that the househol16 d of Stephanas were the first convert16's in Achaia, and that they have devoted themselves to the service of the saint16 s16</t>
+          <t>z the women should keep silent in the churches. For they are not permitted to speak, but a should be in submission, as b the Law also says.</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>1 Corinthians 16:17</t>
+          <t>1 Corinthians 14:35</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>I rejoice at the coming of Stephanas and Fortunatus and Achaicus, because they have made up for your absence,</t>
+          <t>If there is anything they desire to learn, let them ask their husbands at home. For it is shameful for a woman to speak in church.</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>1 Corinthians 16:18</t>
+          <t>1 Corinthians 14:36</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>for they refreshed my spirit as well as yours. Give recognition to such people. Greetings</t>
+          <t>Or was it from you that the word of God came? Or are you the only ones it has reached?</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>1 Corinthians 16:19</t>
+          <t>1 Corinthians 14:37</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>The churches of Asia send you greetings. Aquila and Prisca, together with the church in their house, send you hearty greetings in the Lord.</t>
+          <t>c If anyone thinks that he is a prophet, or spiritual, he should acknowledge that the things I am writing to you are a command of the Lord.</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>1 Corinthians 16:20</t>
+          <t>1 Corinthians 14:38</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>All the brothers send you greetings. Greet one another with a holy kiss.</t>
+          <t>If anyone does not recognize this, he is not recognized.</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>1 Corinthians 16:21</t>
+          <t>1 Corinthians 14:39</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>I, Paul, write this greeting with my own hand.</t>
+          <t>So, my brothers, d earnestly desire to prophesy, and do not forbid speaking in tongues.</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>1 Corinthians 16:22</t>
+          <t>1 Corinthians 14:40</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>If anyone has no love for the Lord, let him be accursed. Our Lord, come!</t>
+          <t>e But all things should be done decently and f in order. The Resurrection of Christ</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
+          <t>1 Corinthians 15:1</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Now I would remind you, brothers, of the gospel g I preached to you, which you received, h in which you stand,</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:2</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>and by which i you are being saved, if you j hold fast to the word I preached to yo u k unless you believed in vain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:3</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>For l I delivered to you as of first importance what I also received: that Christ died m for our sins n in accordance with the Scriptures,</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:4</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>that he was buried, that he was raised o on the third day p in accordance with the Scriptures,</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:5</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>and that q he appeared to Cephas, then r to the twelve.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:6</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Then he appeared to more than five hundred brothers at one time, most of whom are still alive, though some have fallen asleep.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:7</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Then he appeared to s James, then t to all the apostles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:8</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Last of all, as to one untimely born, u he appeared also to me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:9</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>For v I am the least of the apostles, unworthy to be called an apostle, because w I persecuted the church of God.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:10</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>But by the grace of God I am what I am, and his grace toward me was not in vain. On the contrary, x I worked harder than any of them, y though it was not I, but the grace of God that is with me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:11</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Whether then it was I or they, so we preach and so you believed. The Resurrection of the Dead</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:12</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Now if Christ is proclaimed as raised from the dead, z how can some of you say that there is no resurrection of the dead?</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:13</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>But if there is no resurrection of the dead, a then not even Christ has been raised.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:14</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>And if Christ has not been raised, then our preaching is in vain and your faith is in vain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:15</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>We are even found to be misrepresenting God, because we testified about God that b he raised Christ, whom he did not raise if it is true that the dead are not raised.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:16</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>For if the dead are not raised, not even Christ has been raised.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:17</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>And if Christ has not been raised, your faith is futile and c you are still in your sins.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:18</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Then those also who d have fallen asleep in Christ have perished.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:19</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>If in Christ we have hop e in this life only, e we are of all people most to be pitied.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:20</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>But in fact f Christ has been raised from the dead, g the firstfruits of those who have fallen asleep.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:21</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>For as h by a man came death, i by a man has come also the resurrection of the dead.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:22</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>For j as in Adam all die, so also in Christ shall all be made alive.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:23</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>But each in his own order: Christ the firstfruits, then k at his coming l those who belong to Christ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:24</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Then comes the end, when he delivers m the kingdom to God the Father after destroying n every rule and every authority and power.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:25</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>For he must reign o until he has put all his enemies under his feet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:26</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>The last enemy to be p destroyed is death.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:27</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>For q Go d has put all things in subjection under his feet. But when it says, all things are put in subjection, it is plain that he is excepted who put all things in subjection under him.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:28</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>When r all things are subjected to him, then the Son himself will also be subjected to him who put all things in subjection under him, that s God may be all in all.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:29</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Otherwise, what do people mean by being baptized on behalf of the dead? If the dead are not raised at all, why are people baptized on their behalf?</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:30</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Why are we t in danger every hour?</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:31</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>I protest, brothers, by u my pride in you, which I have in Christ Jesus our Lord, v I die every day!</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:32</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>What do I gain if, humanly speaking, w I fought with beasts at Ephesus? If the dead are not raised, x Let us eat and drink, for tomorrow we die.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:33</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>y Do not be deceived: z Bad company ruins good morals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:34</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>a Wake up from your drunken stupor, as is right, and do not go on sinning. For b some have no knowledge of God. c I say this to your shame. The Resurrection Body</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:35</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>But someone will ask, d How are the dead raised? With what kind of body do they come?</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:36</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>You foolish person! e What you sow does not come to life unless it dies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:37</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>And what you sow is not the body that is to be, but a bare kernel, perhaps of wheat or of some other grain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:38</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>But God gives it a body as he has chosen, and to each kind of seed its own body.</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:39</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>For not all flesh is the same, but there is one kind for humans, another for animals, another for birds, and another for fish.</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:40</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>There are heavenly bodies and earthly bodies, but the glory of the heavenly is of one kind, and the glory of the earthly is of another.</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:41</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>There is one glory of the sun, and another glory of the moon, and another glory of the stars; for star differs from star in glory.</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:42</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>f So is it with the resurrection of the dead. What is sown is perishable; what is raised is imperishable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:43</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>It is sown in dishonor; g it is raised in glory. It is sown in weakness; it is raised in power.</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:44</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>It is sown a natural body; it is raised a spiritual body. If there is a natural body, there is also a spiritual body.</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:45</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Thus it is written, h The first man Adam became a living being;</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:46</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>i the last Adam became a j life-giving spirit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:46</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>But it is not the spiritual that is first but the natural, and then the spiritual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:47</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>k The first man was from the earth, l a man of dust; m the second man is from heaven.</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:48</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>As was the man of dust, so also are those who are of the dust, and as is the man of heaven, n so also are those who are of heaven.</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:49</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Just o as we have borne the image of the man of dust, p we shal l also bear the image of the man of heaven. Mystery and Victory</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:50</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>I tell you this, brothers: q flesh and blood r cannot inherit the kingdom of God, nor does the perishable inherit the imperishable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:51</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Behold! I tell you a mystery. s We shall not all sleep, t but we shall all be changed,</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:52</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>in a moment, in the twinkling of an eye, at the last trumpet. For u the trumpet will sound, and v the dead will be raised imperishable, and we shall be changed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:53</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>For this perishable body must put on the imperishable, and w this mortal body must put on immortality.</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:54</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>When the perishable puts on the imperishable, and the mortal puts on immortality, then shall come to pass the saying that is written: x Death is swallowed up in victory.</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:55</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>y O death, where is your victory? O death, where is your sting?</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:56</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>The sting of death is sin, and z the power of sin is the law.</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:57</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>But thanks be to God, a who gives us the victory through our Lord Jesus Christ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>1 Corinthians 15:58</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>b Therefore, my beloved brothers, be steadfast, immovable, always abounding in c the work of the Lord, knowing that in the Lord d your labor is not in vain. The Collection for the Saints</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>1 Corinthians 16:1</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Now concernin g</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>1 Corinthians 16:2</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>e the collection for the saints: as I directed the churches of Galatia, so you also are to do.</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>1 Corinthians 16:2</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>On f the first day of every week, each of you is to put something aside and store it up, g as he may prosper, h so that there will be no collecting when I come.</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>1 Corinthians 16:3</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>And when I arrive, I will send i those whom you accredit by letter to carry your gift to Jerusalem.</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>1 Corinthians 16:4</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>If it seems advisable that I should go also, they will accompany me. Plans for Travel</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>1 Corinthians 16:5</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>j I will visit you after passing through k Macedonia, for l I intend to pass through Macedonia,</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>1 Corinthians 16:6</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>and perhaps I will stay with you or even spend the winter, so that you may m help me on my journey, wherever I go.</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>1 Corinthians 16:7</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>For I do not want to see you now n just in passing. I hope to spend some time with you, o if the Lord permits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>1 Corinthians 16:8</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>But I will stay in Ephesus until p Pentecost,</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>1 Corinthians 16:9</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>for q a wide door for effective work has opened to me, and r there are many adversaries.</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>1 Corinthians 16:10</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>s When Timothy comes, see that you put him at ease among you, for t he is doing u the work of the Lord, as I am.</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>1 Corinthians 16:11</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>So v let no one despise him. w Help him on his way x in peace, that he may return to me, for I am expecting him with the brothers. Final Instructions</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>1 Corinthians 16:12</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Now concerning y our brother Apollos, I strongly urged him to visit you with the other brothers, but it was not at all his wil l to come now. He will come when he has opportunity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>1 Corinthians 16:13</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>z Be watchful, a stand firm in the faith, b act like men, c be strong.</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>1 Corinthians 16:14</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>d Let all that you do be done in love.</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>1 Corinthians 16:15</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Now I urge you, brother s you know that e the househol d of Stephanas were f the first convert s in Achaia, and that they have devoted themselves g to the service of the saint s</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>1 Corinthians 16:16</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>h be subject to such as these, and to every fellow worker and laborer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>1 Corinthians 16:17</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>I rejoice at the coming of Stephanas and Fortunatus and Achaicus, because they have made up for i your absence,</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>1 Corinthians 16:18</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>for they j refreshed my spirit as well as yours. k Give recognition to such people. Greetings</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>1 Corinthians 16:19</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>The churches of Asia send you greetings. l Aquila and Prisca, together with m the church in their house, send you hearty greetings in the Lord.</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>1 Corinthians 16:20</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>All the brothers send you greetings. n Greet one another with a holy kiss.</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>1 Corinthians 16:21</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>I, Paul, write o this greeting with my own hand.</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>1 Corinthians 16:22</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>If anyone has no love for the Lord, let him be p accursed. Our Lord, come!</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>1 Corinthians 16:23</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>q The grace of the Lord Jesus be with you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
           <t>1 Corinthians 16:24</t>
         </is>
       </c>
-      <c r="B366" t="inlineStr">
+      <c r="B449" t="inlineStr">
         <is>
           <t>My love be with you all in Christ Jesus. Amen.</t>
         </is>
